--- a/documents/Коф.xlsx
+++ b/documents/Коф.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>Унифицированная форма № ТОРГ-12
 Утверждена постановлением Госкомстата России от 25.12.98 № 132</t>
@@ -119,10 +119,10 @@
     <t>ТОВАРНАЯ НАКЛАДНАЯ  </t>
   </si>
   <si>
-    <t>3300</t>
-  </si>
-  <si>
-    <t>25.06.2024</t>
+    <t>3476</t>
+  </si>
+  <si>
+    <t>03.07.2024</t>
   </si>
   <si>
     <t>Вид операции</t>
@@ -247,10 +247,10 @@
     <t>15</t>
   </si>
   <si>
-    <t>Морковь</t>
-  </si>
-  <si>
-    <t>00-00000129</t>
+    <t>Авокадо (ХАСС)</t>
+  </si>
+  <si>
+    <t>00-00000400</t>
   </si>
   <si>
     <t>кг</t>
@@ -262,28 +262,76 @@
     <t>Без НДС</t>
   </si>
   <si>
-    <t>Капуста белокочанная</t>
-  </si>
-  <si>
-    <t>00-00000076</t>
-  </si>
-  <si>
-    <t>Лук зеленый</t>
-  </si>
-  <si>
-    <t>00-00000111</t>
-  </si>
-  <si>
-    <t>Петрушка</t>
-  </si>
-  <si>
-    <t>00-00000149</t>
-  </si>
-  <si>
-    <t>Укроп</t>
-  </si>
-  <si>
-    <t>00-00000183</t>
+    <t>Томаты черри</t>
+  </si>
+  <si>
+    <t>00-00000200</t>
+  </si>
+  <si>
+    <t>Яблоко Айдаред</t>
+  </si>
+  <si>
+    <t>00-00000211</t>
+  </si>
+  <si>
+    <t>Мандарины</t>
+  </si>
+  <si>
+    <t>00-00000123</t>
+  </si>
+  <si>
+    <t>Виноград черный</t>
+  </si>
+  <si>
+    <t>00-00000051</t>
+  </si>
+  <si>
+    <t>Мята</t>
+  </si>
+  <si>
+    <t>00-00000132</t>
+  </si>
+  <si>
+    <t>Шампиньоны</t>
+  </si>
+  <si>
+    <t>00-00000203</t>
+  </si>
+  <si>
+    <t>Айсберг</t>
+  </si>
+  <si>
+    <t>00-00000035</t>
+  </si>
+  <si>
+    <t>Салат листовой в горшочке</t>
+  </si>
+  <si>
+    <t>00-00000161</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>796 </t>
+  </si>
+  <si>
+    <t>Микс салат</t>
+  </si>
+  <si>
+    <t>00-00000423</t>
+  </si>
+  <si>
+    <t>Апельсин</t>
+  </si>
+  <si>
+    <t>00-00000037</t>
+  </si>
+  <si>
+    <t>Томат</t>
+  </si>
+  <si>
+    <t>00-00000176</t>
   </si>
   <si>
     <t>Огурец длинноплодный</t>
@@ -292,10 +340,22 @@
     <t>00-00000135</t>
   </si>
   <si>
-    <t>Томат</t>
-  </si>
-  <si>
-    <t>00-00000176</t>
+    <t>Ананас</t>
+  </si>
+  <si>
+    <t>00-00000036</t>
+  </si>
+  <si>
+    <t>Руккола</t>
+  </si>
+  <si>
+    <t>00-00000160</t>
+  </si>
+  <si>
+    <t>Романо</t>
+  </si>
+  <si>
+    <t>00-00000159</t>
   </si>
   <si>
     <t>Перец болгарский красный</t>
@@ -304,88 +364,16 @@
     <t>00-00000143</t>
   </si>
   <si>
-    <t>Капуста Пекинская</t>
-  </si>
-  <si>
-    <t>00-00000079</t>
-  </si>
-  <si>
-    <t>Шампиньоны</t>
-  </si>
-  <si>
-    <t>00-00000203</t>
-  </si>
-  <si>
-    <t>Айсберг</t>
-  </si>
-  <si>
-    <t>00-00000035</t>
-  </si>
-  <si>
-    <t>Салат листовой в горшочке</t>
-  </si>
-  <si>
-    <t>00-00000161</t>
-  </si>
-  <si>
-    <t>шт</t>
-  </si>
-  <si>
-    <t>796 </t>
-  </si>
-  <si>
-    <t>Апельсин</t>
-  </si>
-  <si>
-    <t>00-00000037</t>
-  </si>
-  <si>
-    <t>Виноград черный</t>
-  </si>
-  <si>
-    <t>00-00000051</t>
-  </si>
-  <si>
-    <t>Яблоко Гренни Смит</t>
-  </si>
-  <si>
-    <t>00-00000208</t>
-  </si>
-  <si>
-    <t>Голубика ягода</t>
-  </si>
-  <si>
-    <t>00-00000058</t>
-  </si>
-  <si>
-    <t>Физалис</t>
-  </si>
-  <si>
-    <t>00-00000187</t>
-  </si>
-  <si>
-    <t>упак</t>
-  </si>
-  <si>
-    <t>778 </t>
-  </si>
-  <si>
-    <t>Клубника</t>
-  </si>
-  <si>
-    <t>00-00000093</t>
-  </si>
-  <si>
-    <t>Ананас</t>
-  </si>
-  <si>
-    <t>00-00000036</t>
-  </si>
-  <si>
-    <t>Мандарины</t>
-  </si>
-  <si>
-    <t>00-00000123</t>
+    <t>Картофель мини</t>
+  </si>
+  <si>
+    <t>00-00000126</t>
+  </si>
+  <si>
+    <t>Кабачок</t>
+  </si>
+  <si>
+    <t>00-00000074</t>
   </si>
   <si>
     <t>Итого </t>
@@ -397,22 +385,10 @@
     <t>Страница 2</t>
   </si>
   <si>
-    <t>Перец болгарский желтый</t>
-  </si>
-  <si>
-    <t>00-00000142</t>
-  </si>
-  <si>
-    <t>Мята</t>
-  </si>
-  <si>
-    <t>00-00000132</t>
-  </si>
-  <si>
-    <t>Лимон</t>
-  </si>
-  <si>
-    <t>00-00000105</t>
+    <t>Кукуруза (зерно)</t>
+  </si>
+  <si>
+    <t>00-00000438</t>
   </si>
   <si>
     <t>Всего по накладной </t>
@@ -424,7 +400,7 @@
     <t>и содержит</t>
   </si>
   <si>
-    <t>Двадцать три </t>
+    <t>Двадцать </t>
   </si>
   <si>
     <t>порядковых номеров записей</t>
@@ -433,13 +409,13 @@
     <t>прописью</t>
   </si>
   <si>
-    <t>Восемьдесят один </t>
+    <t>Шестьдесят </t>
   </si>
   <si>
     <t xml:space="preserve">     Масса груза (нетто)</t>
   </si>
   <si>
-    <t>Шестьдесят кг двести пятьдесят восемь г</t>
+    <t>Тридцать три кг девятьсот девяносто два г</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -466,7 +442,7 @@
     <t>Всего отпущено  на сумму</t>
   </si>
   <si>
-    <t>Двенадцать тысяч пятьсот тридцать четыре рубля 42 копейки</t>
+    <t>Двенадцать тысяч девятьсот девятнадцать рублей 30 копеек</t>
   </si>
   <si>
     <t>выданной</t>
@@ -505,10 +481,10 @@
     <t>М.П.</t>
   </si>
   <si>
-    <t>"25"</t>
-  </si>
-  <si>
-    <t>июня</t>
+    <t>"3"</t>
+  </si>
+  <si>
+    <t>июля</t>
   </si>
   <si>
     <t>2024 года</t>
@@ -1306,6 +1282,9 @@
     <xf numFmtId="4" fontId="0" borderId="26" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" borderId="1" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right" vertical="top" wrapText="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="21" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1350,9 +1329,6 @@
     </xf>
     <xf numFmtId="4" fontId="0" borderId="32" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" borderId="1" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="top" wrapText="0"/>
     </xf>
     <xf numFmtId="2" fontId="0" borderId="29" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -1481,7 +1457,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="AQ75"/>
+  <dimension ref="AQ72"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
@@ -2495,31 +2471,31 @@
         <v>71</v>
       </c>
       <c r="O25" s="57" t="n">
-        <v>1</v>
+        <v>0.316</v>
       </c>
       <c r="P25" s="57" t="e"/>
       <c r="Q25" s="58" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R25" s="58" t="e"/>
       <c r="S25" s="58" t="e"/>
       <c r="T25" s="58" t="e"/>
       <c r="U25" s="57" t="n">
-        <v>5.6</v>
+        <v>0.316</v>
       </c>
       <c r="V25" s="57" t="e"/>
       <c r="W25" s="57" t="e"/>
       <c r="X25" s="59" t="n">
-        <v>5.6</v>
+        <v>0.316</v>
       </c>
       <c r="Y25" s="59" t="e"/>
       <c r="Z25" s="60" t="n">
-        <v>55.7</v>
+        <v>684.3</v>
       </c>
       <c r="AA25" s="60" t="e"/>
       <c r="AB25" s="60" t="e"/>
       <c r="AC25" s="61" t="n">
-        <v>311.92</v>
+        <v>216.24</v>
       </c>
       <c r="AD25" s="61" t="e"/>
       <c r="AE25" s="61" t="e"/>
@@ -2533,7 +2509,7 @@
       <c r="AK25" s="63" t="e"/>
       <c r="AL25" s="64" t="e"/>
       <c r="AM25" s="65" t="n">
-        <v>311.92</v>
+        <v>216.24</v>
       </c>
       <c r="AN25" s="65" t="e"/>
       <c r="AO25" s="65" t="e"/>
@@ -2570,27 +2546,27 @@
       </c>
       <c r="P26" s="57" t="e"/>
       <c r="Q26" s="58" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R26" s="58" t="e"/>
       <c r="S26" s="58" t="e"/>
       <c r="T26" s="58" t="e"/>
       <c r="U26" s="57" t="n">
-        <v>8.6</v>
+        <v>1.086</v>
       </c>
       <c r="V26" s="57" t="e"/>
       <c r="W26" s="57" t="e"/>
       <c r="X26" s="59" t="n">
-        <v>8.6</v>
+        <v>1.086</v>
       </c>
       <c r="Y26" s="59" t="e"/>
       <c r="Z26" s="60" t="n">
-        <v>36.6</v>
+        <v>345</v>
       </c>
       <c r="AA26" s="60" t="e"/>
       <c r="AB26" s="60" t="e"/>
       <c r="AC26" s="61" t="n">
-        <v>314.76</v>
+        <v>374.67</v>
       </c>
       <c r="AD26" s="61" t="e"/>
       <c r="AE26" s="61" t="e"/>
@@ -2604,7 +2580,7 @@
       <c r="AK26" s="63" t="e"/>
       <c r="AL26" s="64" t="e"/>
       <c r="AM26" s="65" t="n">
-        <v>314.76</v>
+        <v>374.67</v>
       </c>
       <c r="AN26" s="65" t="e"/>
       <c r="AO26" s="65" t="e"/>
@@ -2637,31 +2613,31 @@
         <v>71</v>
       </c>
       <c r="O27" s="57" t="n">
-        <v>0.276</v>
+        <v>1</v>
       </c>
       <c r="P27" s="57" t="e"/>
       <c r="Q27" s="58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R27" s="58" t="e"/>
       <c r="S27" s="58" t="e"/>
       <c r="T27" s="58" t="e"/>
       <c r="U27" s="57" t="n">
-        <v>0.276</v>
+        <v>3.292</v>
       </c>
       <c r="V27" s="57" t="e"/>
       <c r="W27" s="57" t="e"/>
       <c r="X27" s="59" t="n">
-        <v>0.276</v>
+        <v>3.292</v>
       </c>
       <c r="Y27" s="59" t="e"/>
       <c r="Z27" s="60" t="n">
-        <v>255.22</v>
+        <v>208.8</v>
       </c>
       <c r="AA27" s="60" t="e"/>
       <c r="AB27" s="60" t="e"/>
       <c r="AC27" s="61" t="n">
-        <v>70.44</v>
+        <v>687.37</v>
       </c>
       <c r="AD27" s="61" t="e"/>
       <c r="AE27" s="61" t="e"/>
@@ -2675,7 +2651,7 @@
       <c r="AK27" s="63" t="e"/>
       <c r="AL27" s="64" t="e"/>
       <c r="AM27" s="65" t="n">
-        <v>70.44</v>
+        <v>687.37</v>
       </c>
       <c r="AN27" s="65" t="e"/>
       <c r="AO27" s="65" t="e"/>
@@ -2708,48 +2684,48 @@
         <v>71</v>
       </c>
       <c r="O28" s="57" t="n">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="P28" s="57" t="e"/>
       <c r="Q28" s="58" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R28" s="58" t="e"/>
       <c r="S28" s="58" t="e"/>
       <c r="T28" s="58" t="e"/>
       <c r="U28" s="57" t="n">
-        <v>0.22</v>
+        <v>4.44</v>
       </c>
       <c r="V28" s="57" t="e"/>
       <c r="W28" s="57" t="e"/>
       <c r="X28" s="59" t="n">
-        <v>0.22</v>
+        <v>4.44</v>
       </c>
       <c r="Y28" s="59" t="e"/>
       <c r="Z28" s="60" t="n">
-        <v>396</v>
+        <v>260</v>
       </c>
       <c r="AA28" s="60" t="e"/>
       <c r="AB28" s="60" t="e"/>
-      <c r="AC28" s="61" t="n">
-        <v>87.12</v>
-      </c>
-      <c r="AD28" s="61" t="e"/>
-      <c r="AE28" s="61" t="e"/>
-      <c r="AF28" s="61" t="e"/>
-      <c r="AG28" s="61" t="e"/>
-      <c r="AH28" s="61" t="e"/>
+      <c r="AC28" s="66" t="n">
+        <v>1154.4</v>
+      </c>
+      <c r="AD28" s="66" t="e"/>
+      <c r="AE28" s="66" t="e"/>
+      <c r="AF28" s="66" t="e"/>
+      <c r="AG28" s="66" t="e"/>
+      <c r="AH28" s="66" t="e"/>
       <c r="AI28" s="55" t="s">
         <v>73</v>
       </c>
       <c r="AJ28" s="62" t="e"/>
       <c r="AK28" s="63" t="e"/>
       <c r="AL28" s="64" t="e"/>
-      <c r="AM28" s="65" t="n">
-        <v>87.12</v>
-      </c>
-      <c r="AN28" s="65" t="e"/>
-      <c r="AO28" s="65" t="e"/>
+      <c r="AM28" s="67" t="n">
+        <v>1154.4</v>
+      </c>
+      <c r="AN28" s="67" t="e"/>
+      <c r="AO28" s="67" t="e"/>
     </row>
     <row r="29" ht="11" customHeight="true" s="37" customFormat="true">
       <c r="A29" s="37" t="e"/>
@@ -2779,48 +2755,48 @@
         <v>71</v>
       </c>
       <c r="O29" s="57" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P29" s="57" t="e"/>
       <c r="Q29" s="58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R29" s="58" t="e"/>
       <c r="S29" s="58" t="e"/>
       <c r="T29" s="58" t="e"/>
       <c r="U29" s="57" t="n">
-        <v>0.2</v>
+        <v>3.344</v>
       </c>
       <c r="V29" s="57" t="e"/>
       <c r="W29" s="57" t="e"/>
       <c r="X29" s="59" t="n">
-        <v>0.2</v>
+        <v>3.344</v>
       </c>
       <c r="Y29" s="59" t="e"/>
       <c r="Z29" s="60" t="n">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="AA29" s="60" t="e"/>
       <c r="AB29" s="60" t="e"/>
-      <c r="AC29" s="61" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="AD29" s="61" t="e"/>
-      <c r="AE29" s="61" t="e"/>
-      <c r="AF29" s="61" t="e"/>
-      <c r="AG29" s="61" t="e"/>
-      <c r="AH29" s="61" t="e"/>
+      <c r="AC29" s="66" t="n">
+        <v>1461.33</v>
+      </c>
+      <c r="AD29" s="66" t="e"/>
+      <c r="AE29" s="66" t="e"/>
+      <c r="AF29" s="66" t="e"/>
+      <c r="AG29" s="66" t="e"/>
+      <c r="AH29" s="66" t="e"/>
       <c r="AI29" s="55" t="s">
         <v>73</v>
       </c>
       <c r="AJ29" s="62" t="e"/>
       <c r="AK29" s="63" t="e"/>
       <c r="AL29" s="64" t="e"/>
-      <c r="AM29" s="65" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="AN29" s="65" t="e"/>
-      <c r="AO29" s="65" t="e"/>
+      <c r="AM29" s="67" t="n">
+        <v>1461.33</v>
+      </c>
+      <c r="AN29" s="67" t="e"/>
+      <c r="AO29" s="67" t="e"/>
     </row>
     <row r="30" ht="11" customHeight="true" s="37" customFormat="true">
       <c r="A30" s="37" t="e"/>
@@ -2850,48 +2826,48 @@
         <v>71</v>
       </c>
       <c r="O30" s="57" t="n">
-        <v>1</v>
+        <v>0.135</v>
       </c>
       <c r="P30" s="57" t="e"/>
       <c r="Q30" s="58" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R30" s="58" t="e"/>
       <c r="S30" s="58" t="e"/>
       <c r="T30" s="58" t="e"/>
       <c r="U30" s="57" t="n">
-        <v>7.15</v>
+        <v>0.135</v>
       </c>
       <c r="V30" s="57" t="e"/>
       <c r="W30" s="57" t="e"/>
       <c r="X30" s="59" t="n">
-        <v>7.15</v>
+        <v>0.135</v>
       </c>
       <c r="Y30" s="59" t="e"/>
-      <c r="Z30" s="60" t="n">
-        <v>155.3</v>
-      </c>
-      <c r="AA30" s="60" t="e"/>
-      <c r="AB30" s="60" t="e"/>
-      <c r="AC30" s="66" t="n">
-        <v>1110.4</v>
-      </c>
-      <c r="AD30" s="66" t="e"/>
-      <c r="AE30" s="66" t="e"/>
-      <c r="AF30" s="66" t="e"/>
-      <c r="AG30" s="66" t="e"/>
-      <c r="AH30" s="66" t="e"/>
+      <c r="Z30" s="68" t="n">
+        <v>1088</v>
+      </c>
+      <c r="AA30" s="68" t="e"/>
+      <c r="AB30" s="68" t="e"/>
+      <c r="AC30" s="61" t="n">
+        <v>146.88</v>
+      </c>
+      <c r="AD30" s="61" t="e"/>
+      <c r="AE30" s="61" t="e"/>
+      <c r="AF30" s="61" t="e"/>
+      <c r="AG30" s="61" t="e"/>
+      <c r="AH30" s="61" t="e"/>
       <c r="AI30" s="55" t="s">
         <v>73</v>
       </c>
       <c r="AJ30" s="62" t="e"/>
       <c r="AK30" s="63" t="e"/>
       <c r="AL30" s="64" t="e"/>
-      <c r="AM30" s="67" t="n">
-        <v>1110.4</v>
-      </c>
-      <c r="AN30" s="67" t="e"/>
-      <c r="AO30" s="67" t="e"/>
+      <c r="AM30" s="65" t="n">
+        <v>146.88</v>
+      </c>
+      <c r="AN30" s="65" t="e"/>
+      <c r="AO30" s="65" t="e"/>
     </row>
     <row r="31" ht="11" customHeight="true" s="37" customFormat="true">
       <c r="A31" s="37" t="e"/>
@@ -2925,44 +2901,44 @@
       </c>
       <c r="P31" s="57" t="e"/>
       <c r="Q31" s="58" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R31" s="58" t="e"/>
       <c r="S31" s="58" t="e"/>
       <c r="T31" s="58" t="e"/>
       <c r="U31" s="57" t="n">
-        <v>7.35</v>
+        <v>2.05</v>
       </c>
       <c r="V31" s="57" t="e"/>
       <c r="W31" s="57" t="e"/>
       <c r="X31" s="59" t="n">
-        <v>7.35</v>
+        <v>2.05</v>
       </c>
       <c r="Y31" s="59" t="e"/>
       <c r="Z31" s="60" t="n">
-        <v>168</v>
+        <v>336</v>
       </c>
       <c r="AA31" s="60" t="e"/>
       <c r="AB31" s="60" t="e"/>
-      <c r="AC31" s="66" t="n">
-        <v>1234.8</v>
-      </c>
-      <c r="AD31" s="66" t="e"/>
-      <c r="AE31" s="66" t="e"/>
-      <c r="AF31" s="66" t="e"/>
-      <c r="AG31" s="66" t="e"/>
-      <c r="AH31" s="66" t="e"/>
+      <c r="AC31" s="61" t="n">
+        <v>688.8</v>
+      </c>
+      <c r="AD31" s="61" t="e"/>
+      <c r="AE31" s="61" t="e"/>
+      <c r="AF31" s="61" t="e"/>
+      <c r="AG31" s="61" t="e"/>
+      <c r="AH31" s="61" t="e"/>
       <c r="AI31" s="55" t="s">
         <v>73</v>
       </c>
       <c r="AJ31" s="62" t="e"/>
       <c r="AK31" s="63" t="e"/>
       <c r="AL31" s="64" t="e"/>
-      <c r="AM31" s="67" t="n">
-        <v>1234.8</v>
-      </c>
-      <c r="AN31" s="67" t="e"/>
-      <c r="AO31" s="67" t="e"/>
+      <c r="AM31" s="65" t="n">
+        <v>688.8</v>
+      </c>
+      <c r="AN31" s="65" t="e"/>
+      <c r="AO31" s="65" t="e"/>
     </row>
     <row r="32" ht="11" customHeight="true" s="37" customFormat="true">
       <c r="A32" s="37" t="e"/>
@@ -2996,44 +2972,44 @@
       </c>
       <c r="P32" s="57" t="e"/>
       <c r="Q32" s="58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R32" s="58" t="e"/>
       <c r="S32" s="58" t="e"/>
       <c r="T32" s="58" t="e"/>
       <c r="U32" s="57" t="n">
-        <v>4.212</v>
+        <v>2.46</v>
       </c>
       <c r="V32" s="57" t="e"/>
       <c r="W32" s="57" t="e"/>
       <c r="X32" s="59" t="n">
-        <v>4.212</v>
+        <v>2.46</v>
       </c>
       <c r="Y32" s="59" t="e"/>
       <c r="Z32" s="60" t="n">
-        <v>312.7</v>
+        <v>348.8</v>
       </c>
       <c r="AA32" s="60" t="e"/>
       <c r="AB32" s="60" t="e"/>
-      <c r="AC32" s="66" t="n">
-        <v>1317.09</v>
-      </c>
-      <c r="AD32" s="66" t="e"/>
-      <c r="AE32" s="66" t="e"/>
-      <c r="AF32" s="66" t="e"/>
-      <c r="AG32" s="66" t="e"/>
-      <c r="AH32" s="66" t="e"/>
+      <c r="AC32" s="61" t="n">
+        <v>858.05</v>
+      </c>
+      <c r="AD32" s="61" t="e"/>
+      <c r="AE32" s="61" t="e"/>
+      <c r="AF32" s="61" t="e"/>
+      <c r="AG32" s="61" t="e"/>
+      <c r="AH32" s="61" t="e"/>
       <c r="AI32" s="55" t="s">
         <v>73</v>
       </c>
       <c r="AJ32" s="62" t="e"/>
       <c r="AK32" s="63" t="e"/>
       <c r="AL32" s="64" t="e"/>
-      <c r="AM32" s="67" t="n">
-        <v>1317.09</v>
-      </c>
-      <c r="AN32" s="67" t="e"/>
-      <c r="AO32" s="67" t="e"/>
+      <c r="AM32" s="65" t="n">
+        <v>858.05</v>
+      </c>
+      <c r="AN32" s="65" t="e"/>
+      <c r="AO32" s="65" t="e"/>
     </row>
     <row r="33" ht="11" customHeight="true" s="37" customFormat="true">
       <c r="A33" s="37" t="e"/>
@@ -3051,43 +3027,41 @@
       </c>
       <c r="H33" s="53" t="e"/>
       <c r="I33" s="54" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="J33" s="54" t="e"/>
       <c r="K33" s="54" t="e"/>
       <c r="L33" s="55" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="M33" s="55" t="e"/>
       <c r="N33" s="56" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O33" s="57" t="n">
         <v>1</v>
       </c>
       <c r="P33" s="57" t="e"/>
       <c r="Q33" s="58" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R33" s="58" t="e"/>
       <c r="S33" s="58" t="e"/>
       <c r="T33" s="58" t="e"/>
-      <c r="U33" s="57" t="n">
-        <v>2.462</v>
-      </c>
-      <c r="V33" s="57" t="e"/>
-      <c r="W33" s="57" t="e"/>
+      <c r="U33" s="69" t="e"/>
+      <c r="V33" s="70" t="e"/>
+      <c r="W33" s="71" t="e"/>
       <c r="X33" s="59" t="n">
-        <v>2.462</v>
+        <v>10</v>
       </c>
       <c r="Y33" s="59" t="e"/>
       <c r="Z33" s="60" t="n">
-        <v>92.8</v>
+        <v>96</v>
       </c>
       <c r="AA33" s="60" t="e"/>
       <c r="AB33" s="60" t="e"/>
       <c r="AC33" s="61" t="n">
-        <v>228.47</v>
+        <v>960</v>
       </c>
       <c r="AD33" s="61" t="e"/>
       <c r="AE33" s="61" t="e"/>
@@ -3101,7 +3075,7 @@
       <c r="AK33" s="63" t="e"/>
       <c r="AL33" s="64" t="e"/>
       <c r="AM33" s="65" t="n">
-        <v>228.47</v>
+        <v>960</v>
       </c>
       <c r="AN33" s="65" t="e"/>
       <c r="AO33" s="65" t="e"/>
@@ -3112,53 +3086,51 @@
         <v>10</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D34" s="52" t="e"/>
       <c r="E34" s="52" t="e"/>
       <c r="F34" s="52" t="e"/>
       <c r="G34" s="53" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H34" s="53" t="e"/>
       <c r="I34" s="54" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="J34" s="54" t="e"/>
       <c r="K34" s="54" t="e"/>
       <c r="L34" s="55" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="M34" s="55" t="e"/>
       <c r="N34" s="56" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O34" s="57" t="n">
         <v>1</v>
       </c>
       <c r="P34" s="57" t="e"/>
       <c r="Q34" s="58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R34" s="58" t="e"/>
       <c r="S34" s="58" t="e"/>
       <c r="T34" s="58" t="e"/>
-      <c r="U34" s="57" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="V34" s="57" t="e"/>
-      <c r="W34" s="57" t="e"/>
+      <c r="U34" s="69" t="e"/>
+      <c r="V34" s="70" t="e"/>
+      <c r="W34" s="71" t="e"/>
       <c r="X34" s="59" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Y34" s="59" t="e"/>
       <c r="Z34" s="60" t="n">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="AA34" s="60" t="e"/>
       <c r="AB34" s="60" t="e"/>
       <c r="AC34" s="66" t="n">
-        <v>1566</v>
+        <v>1468</v>
       </c>
       <c r="AD34" s="66" t="e"/>
       <c r="AE34" s="66" t="e"/>
@@ -3172,7 +3144,7 @@
       <c r="AK34" s="63" t="e"/>
       <c r="AL34" s="64" t="e"/>
       <c r="AM34" s="67" t="n">
-        <v>1566</v>
+        <v>1468</v>
       </c>
       <c r="AN34" s="67" t="e"/>
       <c r="AO34" s="67" t="e"/>
@@ -3183,13 +3155,13 @@
         <v>11</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D35" s="52" t="e"/>
       <c r="E35" s="52" t="e"/>
       <c r="F35" s="52" t="e"/>
       <c r="G35" s="53" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H35" s="53" t="e"/>
       <c r="I35" s="54" t="s">
@@ -3209,27 +3181,27 @@
       </c>
       <c r="P35" s="57" t="e"/>
       <c r="Q35" s="58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R35" s="58" t="e"/>
       <c r="S35" s="58" t="e"/>
       <c r="T35" s="58" t="e"/>
       <c r="U35" s="57" t="n">
-        <v>2.6</v>
+        <v>1.03</v>
       </c>
       <c r="V35" s="57" t="e"/>
       <c r="W35" s="57" t="e"/>
       <c r="X35" s="59" t="n">
-        <v>2.6</v>
+        <v>1.03</v>
       </c>
       <c r="Y35" s="59" t="e"/>
       <c r="Z35" s="60" t="n">
-        <v>298.9</v>
+        <v>111</v>
       </c>
       <c r="AA35" s="60" t="e"/>
       <c r="AB35" s="60" t="e"/>
       <c r="AC35" s="61" t="n">
-        <v>777.14</v>
+        <v>114.33</v>
       </c>
       <c r="AD35" s="61" t="e"/>
       <c r="AE35" s="61" t="e"/>
@@ -3243,7 +3215,7 @@
       <c r="AK35" s="63" t="e"/>
       <c r="AL35" s="64" t="e"/>
       <c r="AM35" s="65" t="n">
-        <v>777.14</v>
+        <v>114.33</v>
       </c>
       <c r="AN35" s="65" t="e"/>
       <c r="AO35" s="65" t="e"/>
@@ -3254,51 +3226,53 @@
         <v>12</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D36" s="52" t="e"/>
       <c r="E36" s="52" t="e"/>
       <c r="F36" s="52" t="e"/>
       <c r="G36" s="53" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H36" s="53" t="e"/>
       <c r="I36" s="54" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="J36" s="54" t="e"/>
       <c r="K36" s="54" t="e"/>
       <c r="L36" s="55" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="M36" s="55" t="e"/>
       <c r="N36" s="56" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="O36" s="57" t="n">
         <v>1</v>
       </c>
       <c r="P36" s="57" t="e"/>
       <c r="Q36" s="58" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R36" s="58" t="e"/>
       <c r="S36" s="58" t="e"/>
       <c r="T36" s="58" t="e"/>
-      <c r="U36" s="68" t="e"/>
-      <c r="V36" s="69" t="e"/>
-      <c r="W36" s="70" t="e"/>
+      <c r="U36" s="57" t="n">
+        <v>2.766</v>
+      </c>
+      <c r="V36" s="57" t="e"/>
+      <c r="W36" s="57" t="e"/>
       <c r="X36" s="59" t="n">
-        <v>6</v>
+        <v>2.766</v>
       </c>
       <c r="Y36" s="59" t="e"/>
       <c r="Z36" s="60" t="n">
-        <v>96</v>
+        <v>149.7</v>
       </c>
       <c r="AA36" s="60" t="e"/>
       <c r="AB36" s="60" t="e"/>
       <c r="AC36" s="61" t="n">
-        <v>576</v>
+        <v>414.07</v>
       </c>
       <c r="AD36" s="61" t="e"/>
       <c r="AE36" s="61" t="e"/>
@@ -3312,7 +3286,7 @@
       <c r="AK36" s="63" t="e"/>
       <c r="AL36" s="64" t="e"/>
       <c r="AM36" s="65" t="n">
-        <v>576</v>
+        <v>414.07</v>
       </c>
       <c r="AN36" s="65" t="e"/>
       <c r="AO36" s="65" t="e"/>
@@ -3349,27 +3323,27 @@
       </c>
       <c r="P37" s="57" t="e"/>
       <c r="Q37" s="58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R37" s="58" t="e"/>
       <c r="S37" s="58" t="e"/>
       <c r="T37" s="58" t="e"/>
       <c r="U37" s="57" t="n">
-        <v>2.15</v>
+        <v>1.104</v>
       </c>
       <c r="V37" s="57" t="e"/>
       <c r="W37" s="57" t="e"/>
       <c r="X37" s="59" t="n">
-        <v>2.15</v>
+        <v>1.104</v>
       </c>
       <c r="Y37" s="59" t="e"/>
       <c r="Z37" s="60" t="n">
-        <v>111</v>
+        <v>166.8</v>
       </c>
       <c r="AA37" s="60" t="e"/>
       <c r="AB37" s="60" t="e"/>
       <c r="AC37" s="61" t="n">
-        <v>238.65</v>
+        <v>184.15</v>
       </c>
       <c r="AD37" s="61" t="e"/>
       <c r="AE37" s="61" t="e"/>
@@ -3383,7 +3357,7 @@
       <c r="AK37" s="63" t="e"/>
       <c r="AL37" s="64" t="e"/>
       <c r="AM37" s="65" t="n">
-        <v>238.65</v>
+        <v>184.15</v>
       </c>
       <c r="AN37" s="65" t="e"/>
       <c r="AO37" s="65" t="e"/>
@@ -3420,27 +3394,27 @@
       </c>
       <c r="P38" s="57" t="e"/>
       <c r="Q38" s="58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R38" s="58" t="e"/>
       <c r="S38" s="58" t="e"/>
       <c r="T38" s="58" t="e"/>
       <c r="U38" s="57" t="n">
-        <v>2.5</v>
+        <v>4.52</v>
       </c>
       <c r="V38" s="57" t="e"/>
       <c r="W38" s="57" t="e"/>
       <c r="X38" s="59" t="n">
-        <v>2.5</v>
+        <v>4.52</v>
       </c>
       <c r="Y38" s="59" t="e"/>
       <c r="Z38" s="60" t="n">
-        <v>494.5</v>
+        <v>375</v>
       </c>
       <c r="AA38" s="60" t="e"/>
       <c r="AB38" s="60" t="e"/>
       <c r="AC38" s="66" t="n">
-        <v>1236.25</v>
+        <v>1695</v>
       </c>
       <c r="AD38" s="66" t="e"/>
       <c r="AE38" s="66" t="e"/>
@@ -3454,7 +3428,7 @@
       <c r="AK38" s="63" t="e"/>
       <c r="AL38" s="64" t="e"/>
       <c r="AM38" s="67" t="n">
-        <v>1236.25</v>
+        <v>1695</v>
       </c>
       <c r="AN38" s="67" t="e"/>
       <c r="AO38" s="67" t="e"/>
@@ -3487,31 +3461,31 @@
         <v>71</v>
       </c>
       <c r="O39" s="57" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="P39" s="57" t="e"/>
       <c r="Q39" s="58" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R39" s="58" t="e"/>
       <c r="S39" s="58" t="e"/>
       <c r="T39" s="58" t="e"/>
       <c r="U39" s="57" t="n">
-        <v>4.15</v>
+        <v>0.375</v>
       </c>
       <c r="V39" s="57" t="e"/>
       <c r="W39" s="57" t="e"/>
       <c r="X39" s="59" t="n">
-        <v>4.15</v>
+        <v>0.375</v>
       </c>
       <c r="Y39" s="59" t="e"/>
-      <c r="Z39" s="60" t="n">
-        <v>197.2</v>
-      </c>
-      <c r="AA39" s="60" t="e"/>
-      <c r="AB39" s="60" t="e"/>
+      <c r="Z39" s="68" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AA39" s="68" t="e"/>
+      <c r="AB39" s="68" t="e"/>
       <c r="AC39" s="61" t="n">
-        <v>818.38</v>
+        <v>504</v>
       </c>
       <c r="AD39" s="61" t="e"/>
       <c r="AE39" s="61" t="e"/>
@@ -3525,7 +3499,7 @@
       <c r="AK39" s="63" t="e"/>
       <c r="AL39" s="64" t="e"/>
       <c r="AM39" s="65" t="n">
-        <v>818.38</v>
+        <v>504</v>
       </c>
       <c r="AN39" s="65" t="e"/>
       <c r="AO39" s="65" t="e"/>
@@ -3558,31 +3532,31 @@
         <v>71</v>
       </c>
       <c r="O40" s="57" t="n">
-        <v>0.146</v>
+        <v>1</v>
       </c>
       <c r="P40" s="57" t="e"/>
       <c r="Q40" s="58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R40" s="58" t="e"/>
       <c r="S40" s="58" t="e"/>
       <c r="T40" s="58" t="e"/>
       <c r="U40" s="57" t="n">
-        <v>0.146</v>
+        <v>1.18</v>
       </c>
       <c r="V40" s="57" t="e"/>
       <c r="W40" s="57" t="e"/>
       <c r="X40" s="59" t="n">
-        <v>0.146</v>
+        <v>1.18</v>
       </c>
       <c r="Y40" s="59" t="e"/>
       <c r="Z40" s="60" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="AA40" s="60" t="e"/>
       <c r="AB40" s="60" t="e"/>
       <c r="AC40" s="61" t="n">
-        <v>131.4</v>
+        <v>531</v>
       </c>
       <c r="AD40" s="61" t="e"/>
       <c r="AE40" s="61" t="e"/>
@@ -3596,7 +3570,7 @@
       <c r="AK40" s="63" t="e"/>
       <c r="AL40" s="64" t="e"/>
       <c r="AM40" s="65" t="n">
-        <v>131.4</v>
+        <v>531</v>
       </c>
       <c r="AN40" s="65" t="e"/>
       <c r="AO40" s="65" t="e"/>
@@ -3617,16 +3591,16 @@
       </c>
       <c r="H41" s="53" t="e"/>
       <c r="I41" s="54" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="J41" s="54" t="e"/>
       <c r="K41" s="54" t="e"/>
       <c r="L41" s="55" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="M41" s="55" t="e"/>
       <c r="N41" s="56" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="O41" s="57" t="n">
         <v>1</v>
@@ -3639,7 +3613,7 @@
       <c r="S41" s="58" t="e"/>
       <c r="T41" s="58" t="e"/>
       <c r="U41" s="57" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="V41" s="57" t="e"/>
       <c r="W41" s="57" t="e"/>
@@ -3648,12 +3622,12 @@
       </c>
       <c r="Y41" s="59" t="e"/>
       <c r="Z41" s="60" t="n">
-        <v>197.2</v>
+        <v>336.3</v>
       </c>
       <c r="AA41" s="60" t="e"/>
       <c r="AB41" s="60" t="e"/>
       <c r="AC41" s="61" t="n">
-        <v>394.4</v>
+        <v>672.6</v>
       </c>
       <c r="AD41" s="61" t="e"/>
       <c r="AE41" s="61" t="e"/>
@@ -3667,7 +3641,7 @@
       <c r="AK41" s="63" t="e"/>
       <c r="AL41" s="64" t="e"/>
       <c r="AM41" s="65" t="n">
-        <v>394.4</v>
+        <v>672.6</v>
       </c>
       <c r="AN41" s="65" t="e"/>
       <c r="AO41" s="65" t="e"/>
@@ -3678,13 +3652,13 @@
         <v>18</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D42" s="52" t="e"/>
       <c r="E42" s="52" t="e"/>
       <c r="F42" s="52" t="e"/>
       <c r="G42" s="53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H42" s="53" t="e"/>
       <c r="I42" s="54" t="s">
@@ -3700,31 +3674,31 @@
         <v>71</v>
       </c>
       <c r="O42" s="57" t="n">
-        <v>0.124</v>
+        <v>1</v>
       </c>
       <c r="P42" s="57" t="e"/>
       <c r="Q42" s="58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R42" s="58" t="e"/>
       <c r="S42" s="58" t="e"/>
       <c r="T42" s="58" t="e"/>
       <c r="U42" s="57" t="n">
-        <v>0.124</v>
+        <v>1.444</v>
       </c>
       <c r="V42" s="57" t="e"/>
       <c r="W42" s="57" t="e"/>
       <c r="X42" s="59" t="n">
-        <v>0.124</v>
+        <v>1.444</v>
       </c>
       <c r="Y42" s="59" t="e"/>
       <c r="Z42" s="60" t="n">
-        <v>380</v>
+        <v>85</v>
       </c>
       <c r="AA42" s="60" t="e"/>
       <c r="AB42" s="60" t="e"/>
       <c r="AC42" s="61" t="n">
-        <v>47.12</v>
+        <v>122.74</v>
       </c>
       <c r="AD42" s="61" t="e"/>
       <c r="AE42" s="61" t="e"/>
@@ -3738,7 +3712,7 @@
       <c r="AK42" s="63" t="e"/>
       <c r="AL42" s="64" t="e"/>
       <c r="AM42" s="65" t="n">
-        <v>47.12</v>
+        <v>122.74</v>
       </c>
       <c r="AN42" s="65" t="e"/>
       <c r="AO42" s="65" t="e"/>
@@ -3749,13 +3723,13 @@
         <v>19</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D43" s="52" t="e"/>
       <c r="E43" s="52" t="e"/>
       <c r="F43" s="52" t="e"/>
       <c r="G43" s="53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H43" s="53" t="e"/>
       <c r="I43" s="54" t="s">
@@ -3775,27 +3749,27 @@
       </c>
       <c r="P43" s="57" t="e"/>
       <c r="Q43" s="58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R43" s="58" t="e"/>
       <c r="S43" s="58" t="e"/>
       <c r="T43" s="58" t="e"/>
       <c r="U43" s="57" t="n">
-        <v>2.97</v>
+        <v>1.1</v>
       </c>
       <c r="V43" s="57" t="e"/>
       <c r="W43" s="57" t="e"/>
       <c r="X43" s="59" t="n">
-        <v>2.97</v>
+        <v>1.1</v>
       </c>
       <c r="Y43" s="59" t="e"/>
       <c r="Z43" s="60" t="n">
-        <v>294.7</v>
+        <v>89.7</v>
       </c>
       <c r="AA43" s="60" t="e"/>
       <c r="AB43" s="60" t="e"/>
       <c r="AC43" s="61" t="n">
-        <v>875.26</v>
+        <v>98.67</v>
       </c>
       <c r="AD43" s="61" t="e"/>
       <c r="AE43" s="61" t="e"/>
@@ -3809,822 +3783,678 @@
       <c r="AK43" s="63" t="e"/>
       <c r="AL43" s="64" t="e"/>
       <c r="AM43" s="65" t="n">
-        <v>875.26</v>
+        <v>98.67</v>
       </c>
       <c r="AN43" s="65" t="e"/>
       <c r="AO43" s="65" t="e"/>
     </row>
-    <row r="44" ht="11" customHeight="true" s="37" customFormat="true">
-      <c r="A44" s="37" t="e"/>
-      <c r="B44" s="51" t="n">
+    <row r="44" ht="11" customHeight="true" s="1" customFormat="true">
+      <c r="B44" s="72" t="e"/>
+      <c r="C44" s="72" t="e"/>
+      <c r="D44" s="72" t="e"/>
+      <c r="E44" s="72" t="e"/>
+      <c r="F44" s="72" t="e"/>
+      <c r="G44" s="73" t="e"/>
+      <c r="H44" s="73" t="e"/>
+      <c r="I44" s="72" t="e"/>
+      <c r="J44" s="72" t="e"/>
+      <c r="K44" s="72" t="e"/>
+      <c r="L44" s="73" t="e"/>
+      <c r="M44" s="73" t="e"/>
+      <c r="N44" s="73" t="e"/>
+      <c r="O44" s="74" t="e"/>
+      <c r="P44" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q44" s="75" t="n">
+        <v>58</v>
+      </c>
+      <c r="R44" s="75" t="e"/>
+      <c r="S44" s="75" t="e"/>
+      <c r="T44" s="75" t="e"/>
+      <c r="U44" s="76" t="n">
+        <v>32.642</v>
+      </c>
+      <c r="V44" s="76" t="e"/>
+      <c r="W44" s="76" t="e"/>
+      <c r="X44" s="77" t="n">
+        <v>46.642</v>
+      </c>
+      <c r="Y44" s="77" t="e"/>
+      <c r="Z44" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA44" s="78" t="e"/>
+      <c r="AB44" s="78" t="e"/>
+      <c r="AC44" s="79" t="n">
+        <v>12352.3</v>
+      </c>
+      <c r="AD44" s="79" t="e"/>
+      <c r="AE44" s="79" t="e"/>
+      <c r="AF44" s="79" t="e"/>
+      <c r="AG44" s="79" t="e"/>
+      <c r="AH44" s="79" t="e"/>
+      <c r="AI44" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ44" s="81" t="e"/>
+      <c r="AK44" s="82" t="e"/>
+      <c r="AL44" s="82" t="e"/>
+      <c r="AM44" s="83" t="n">
+        <v>12352.3</v>
+      </c>
+      <c r="AN44" s="83" t="e"/>
+      <c r="AO44" s="83" t="e"/>
+    </row>
+    <row r="45" ht="11" customHeight="true" s="37" customFormat="true">
+      <c r="AM45" s="38" t="e"/>
+      <c r="AN45" s="38" t="e"/>
+      <c r="AO45" s="38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" ht="11" customHeight="true" s="37" customFormat="true">
+      <c r="A46" s="37" t="e"/>
+      <c r="B46" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="4" t="e"/>
+      <c r="E46" s="4" t="e"/>
+      <c r="F46" s="4" t="e"/>
+      <c r="G46" s="4" t="e"/>
+      <c r="H46" s="4" t="e"/>
+      <c r="I46" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J46" s="4" t="e"/>
+      <c r="K46" s="4" t="e"/>
+      <c r="L46" s="4" t="e"/>
+      <c r="M46" s="4" t="e"/>
+      <c r="N46" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P46" s="4" t="e"/>
+      <c r="Q46" s="4" t="e"/>
+      <c r="R46" s="4" t="e"/>
+      <c r="S46" s="4" t="e"/>
+      <c r="T46" s="4" t="e"/>
+      <c r="U46" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="V46" s="40" t="e"/>
+      <c r="W46" s="40" t="e"/>
+      <c r="X46" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y46" s="40" t="e"/>
+      <c r="Z46" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA46" s="40" t="e"/>
+      <c r="AB46" s="40" t="e"/>
+      <c r="AC46" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD46" s="40" t="e"/>
+      <c r="AE46" s="40" t="e"/>
+      <c r="AF46" s="40" t="e"/>
+      <c r="AG46" s="40" t="e"/>
+      <c r="AH46" s="40" t="e"/>
+      <c r="AI46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ46" s="4" t="e"/>
+      <c r="AK46" s="4" t="e"/>
+      <c r="AL46" s="4" t="e"/>
+      <c r="AM46" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN46" s="40" t="e"/>
+      <c r="AO46" s="40" t="e"/>
+    </row>
+    <row r="47" ht="33" customHeight="true" s="37" customFormat="true">
+      <c r="B47" s="39" t="e"/>
+      <c r="C47" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="47" t="e"/>
+      <c r="E47" s="47" t="e"/>
+      <c r="F47" s="47" t="e"/>
+      <c r="G47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" s="4" t="e"/>
+      <c r="I47" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="J47" s="47" t="e"/>
+      <c r="K47" s="47" t="e"/>
+      <c r="L47" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="M47" s="47" t="e"/>
+      <c r="N47" s="39" t="e"/>
+      <c r="O47" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="P47" s="47" t="e"/>
+      <c r="Q47" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="R47" s="47" t="e"/>
+      <c r="S47" s="47" t="e"/>
+      <c r="T47" s="47" t="e"/>
+      <c r="U47" s="41" t="e"/>
+      <c r="V47" s="42" t="e"/>
+      <c r="W47" s="43" t="e"/>
+      <c r="X47" s="44" t="e"/>
+      <c r="Y47" s="45" t="e"/>
+      <c r="Z47" s="44" t="e"/>
+      <c r="AA47" s="46" t="e"/>
+      <c r="AB47" s="45" t="e"/>
+      <c r="AC47" s="44" t="e"/>
+      <c r="AD47" s="46" t="e"/>
+      <c r="AE47" s="46" t="e"/>
+      <c r="AF47" s="46" t="e"/>
+      <c r="AG47" s="46" t="e"/>
+      <c r="AH47" s="45" t="e"/>
+      <c r="AI47" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ47" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK47" s="47" t="e"/>
+      <c r="AL47" s="47" t="e"/>
+      <c r="AM47" s="44" t="e"/>
+      <c r="AN47" s="46" t="e"/>
+      <c r="AO47" s="45" t="e"/>
+    </row>
+    <row r="48" ht="11" customHeight="true" s="48" customFormat="true">
+      <c r="A48" s="48" t="e"/>
+      <c r="B48" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="49" t="e"/>
+      <c r="E48" s="49" t="e"/>
+      <c r="F48" s="49" t="e"/>
+      <c r="G48" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="50" t="e"/>
+      <c r="I48" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="J48" s="49" t="e"/>
+      <c r="K48" s="49" t="e"/>
+      <c r="L48" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="M48" s="50" t="e"/>
+      <c r="N48" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="O48" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P48" s="50" t="e"/>
+      <c r="Q48" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="R48" s="50" t="e"/>
+      <c r="S48" s="50" t="e"/>
+      <c r="T48" s="50" t="e"/>
+      <c r="U48" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="V48" s="50" t="e"/>
+      <c r="W48" s="50" t="e"/>
+      <c r="X48" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y48" s="50" t="e"/>
+      <c r="Z48" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA48" s="50" t="e"/>
+      <c r="AB48" s="50" t="e"/>
+      <c r="AC48" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD48" s="50" t="e"/>
+      <c r="AE48" s="50" t="e"/>
+      <c r="AF48" s="50" t="e"/>
+      <c r="AG48" s="50" t="e"/>
+      <c r="AH48" s="50" t="e"/>
+      <c r="AI48" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ48" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK48" s="50" t="e"/>
+      <c r="AL48" s="50" t="e"/>
+      <c r="AM48" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN48" s="50" t="e"/>
+      <c r="AO48" s="50" t="e"/>
+    </row>
+    <row r="49" ht="11" customHeight="true" s="37" customFormat="true">
+      <c r="A49" s="37" t="e"/>
+      <c r="B49" s="51" t="n">
         <v>20</v>
       </c>
-      <c r="C44" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="52" t="e"/>
-      <c r="E44" s="52" t="e"/>
-      <c r="F44" s="52" t="e"/>
-      <c r="G44" s="53" t="s">
+      <c r="C49" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="H44" s="53" t="e"/>
-      <c r="I44" s="54" t="s">
+      <c r="D49" s="52" t="e"/>
+      <c r="E49" s="52" t="e"/>
+      <c r="F49" s="52" t="e"/>
+      <c r="G49" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="H49" s="53" t="e"/>
+      <c r="I49" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="J44" s="54" t="e"/>
-      <c r="K44" s="54" t="e"/>
-      <c r="L44" s="55" t="s">
+      <c r="J49" s="54" t="e"/>
+      <c r="K49" s="54" t="e"/>
+      <c r="L49" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="M44" s="55" t="e"/>
-      <c r="N44" s="56" t="s">
+      <c r="M49" s="55" t="e"/>
+      <c r="N49" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="O44" s="57" t="n">
+      <c r="O49" s="57" t="n">
         <v>1</v>
       </c>
-      <c r="P44" s="57" t="e"/>
-      <c r="Q44" s="58" t="n">
+      <c r="P49" s="57" t="e"/>
+      <c r="Q49" s="58" t="n">
         <v>2</v>
       </c>
-      <c r="R44" s="58" t="e"/>
-      <c r="S44" s="58" t="e"/>
-      <c r="T44" s="58" t="e"/>
-      <c r="U44" s="57" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V44" s="57" t="e"/>
-      <c r="W44" s="57" t="e"/>
-      <c r="X44" s="59" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y44" s="59" t="e"/>
-      <c r="Z44" s="60" t="n">
-        <v>260</v>
-      </c>
-      <c r="AA44" s="60" t="e"/>
-      <c r="AB44" s="60" t="e"/>
-      <c r="AC44" s="61" t="n">
-        <v>390</v>
-      </c>
-      <c r="AD44" s="61" t="e"/>
-      <c r="AE44" s="61" t="e"/>
-      <c r="AF44" s="61" t="e"/>
-      <c r="AG44" s="61" t="e"/>
-      <c r="AH44" s="61" t="e"/>
-      <c r="AI44" s="55" t="s">
+      <c r="R49" s="58" t="e"/>
+      <c r="S49" s="58" t="e"/>
+      <c r="T49" s="58" t="e"/>
+      <c r="U49" s="57" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="V49" s="57" t="e"/>
+      <c r="W49" s="57" t="e"/>
+      <c r="X49" s="59" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Y49" s="59" t="e"/>
+      <c r="Z49" s="60" t="n">
+        <v>420</v>
+      </c>
+      <c r="AA49" s="60" t="e"/>
+      <c r="AB49" s="60" t="e"/>
+      <c r="AC49" s="61" t="n">
+        <v>567</v>
+      </c>
+      <c r="AD49" s="61" t="e"/>
+      <c r="AE49" s="61" t="e"/>
+      <c r="AF49" s="61" t="e"/>
+      <c r="AG49" s="61" t="e"/>
+      <c r="AH49" s="61" t="e"/>
+      <c r="AI49" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="AJ44" s="62" t="e"/>
-      <c r="AK44" s="63" t="e"/>
-      <c r="AL44" s="64" t="e"/>
-      <c r="AM44" s="65" t="n">
-        <v>390</v>
-      </c>
-      <c r="AN44" s="65" t="e"/>
-      <c r="AO44" s="65" t="e"/>
-    </row>
-    <row r="45" ht="11" customHeight="true" s="1" customFormat="true">
-      <c r="B45" s="71" t="e"/>
-      <c r="C45" s="71" t="e"/>
-      <c r="D45" s="71" t="e"/>
-      <c r="E45" s="71" t="e"/>
-      <c r="F45" s="71" t="e"/>
-      <c r="G45" s="72" t="e"/>
-      <c r="H45" s="72" t="e"/>
-      <c r="I45" s="71" t="e"/>
-      <c r="J45" s="71" t="e"/>
-      <c r="K45" s="71" t="e"/>
-      <c r="L45" s="72" t="e"/>
-      <c r="M45" s="72" t="e"/>
-      <c r="N45" s="72" t="e"/>
-      <c r="O45" s="73" t="e"/>
-      <c r="P45" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q45" s="74" t="n">
-        <v>76</v>
-      </c>
-      <c r="R45" s="74" t="e"/>
-      <c r="S45" s="74" t="e"/>
-      <c r="T45" s="74" t="e"/>
-      <c r="U45" s="75" t="n">
-        <v>56.91</v>
-      </c>
-      <c r="V45" s="75" t="e"/>
-      <c r="W45" s="75" t="e"/>
-      <c r="X45" s="76" t="n">
-        <v>64.71</v>
-      </c>
-      <c r="Y45" s="76" t="e"/>
-      <c r="Z45" s="77" t="s">
+      <c r="AJ49" s="62" t="e"/>
+      <c r="AK49" s="63" t="e"/>
+      <c r="AL49" s="64" t="e"/>
+      <c r="AM49" s="65" t="n">
+        <v>567</v>
+      </c>
+      <c r="AN49" s="65" t="e"/>
+      <c r="AO49" s="65" t="e"/>
+    </row>
+    <row r="50" ht="11" customHeight="true">
+      <c r="B50" s="72" t="e"/>
+      <c r="C50" s="72" t="e"/>
+      <c r="D50" s="72" t="e"/>
+      <c r="E50" s="72" t="e"/>
+      <c r="F50" s="72" t="e"/>
+      <c r="G50" s="73" t="e"/>
+      <c r="H50" s="73" t="e"/>
+      <c r="I50" s="72" t="e"/>
+      <c r="J50" s="72" t="e"/>
+      <c r="K50" s="72" t="e"/>
+      <c r="L50" s="73" t="e"/>
+      <c r="M50" s="73" t="e"/>
+      <c r="N50" s="73" t="e"/>
+      <c r="O50" s="74" t="e"/>
+      <c r="P50" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q50" s="75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" s="75" t="e"/>
+      <c r="S50" s="75" t="e"/>
+      <c r="T50" s="75" t="e"/>
+      <c r="U50" s="76" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="V50" s="76" t="e"/>
+      <c r="W50" s="76" t="e"/>
+      <c r="X50" s="77" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Y50" s="77" t="e"/>
+      <c r="Z50" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA50" s="78" t="e"/>
+      <c r="AB50" s="78" t="e"/>
+      <c r="AC50" s="84" t="n">
+        <v>567</v>
+      </c>
+      <c r="AD50" s="84" t="e"/>
+      <c r="AE50" s="84" t="e"/>
+      <c r="AF50" s="84" t="e"/>
+      <c r="AG50" s="84" t="e"/>
+      <c r="AH50" s="84" t="e"/>
+      <c r="AI50" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ50" s="81" t="e"/>
+      <c r="AK50" s="82" t="e"/>
+      <c r="AL50" s="82" t="e"/>
+      <c r="AM50" s="85" t="n">
+        <v>567</v>
+      </c>
+      <c r="AN50" s="85" t="e"/>
+      <c r="AO50" s="85" t="e"/>
+    </row>
+    <row r="51" ht="11" customHeight="true">
+      <c r="O51" s="86" t="e"/>
+      <c r="P51" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="AA45" s="77" t="e"/>
-      <c r="AB45" s="77" t="e"/>
-      <c r="AC45" s="78" t="n">
-        <v>11804.8</v>
-      </c>
-      <c r="AD45" s="78" t="e"/>
-      <c r="AE45" s="78" t="e"/>
-      <c r="AF45" s="78" t="e"/>
-      <c r="AG45" s="78" t="e"/>
-      <c r="AH45" s="78" t="e"/>
-      <c r="AI45" s="79" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ45" s="80" t="e"/>
-      <c r="AK45" s="81" t="e"/>
-      <c r="AL45" s="81" t="e"/>
-      <c r="AM45" s="82" t="n">
-        <v>11804.8</v>
-      </c>
-      <c r="AN45" s="82" t="e"/>
-      <c r="AO45" s="82" t="e"/>
-    </row>
-    <row r="46" ht="11" customHeight="true" s="37" customFormat="true">
-      <c r="AM46" s="38" t="e"/>
-      <c r="AN46" s="38" t="e"/>
-      <c r="AO46" s="38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" ht="11" customHeight="true" s="37" customFormat="true">
-      <c r="A47" s="37" t="e"/>
-      <c r="B47" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="4" t="e"/>
-      <c r="E47" s="4" t="e"/>
-      <c r="F47" s="4" t="e"/>
-      <c r="G47" s="4" t="e"/>
-      <c r="H47" s="4" t="e"/>
-      <c r="I47" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J47" s="4" t="e"/>
-      <c r="K47" s="4" t="e"/>
-      <c r="L47" s="4" t="e"/>
-      <c r="M47" s="4" t="e"/>
-      <c r="N47" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="O47" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P47" s="4" t="e"/>
-      <c r="Q47" s="4" t="e"/>
-      <c r="R47" s="4" t="e"/>
-      <c r="S47" s="4" t="e"/>
-      <c r="T47" s="4" t="e"/>
-      <c r="U47" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="V47" s="40" t="e"/>
-      <c r="W47" s="40" t="e"/>
-      <c r="X47" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y47" s="40" t="e"/>
-      <c r="Z47" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA47" s="40" t="e"/>
-      <c r="AB47" s="40" t="e"/>
-      <c r="AC47" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD47" s="40" t="e"/>
-      <c r="AE47" s="40" t="e"/>
-      <c r="AF47" s="40" t="e"/>
-      <c r="AG47" s="40" t="e"/>
-      <c r="AH47" s="40" t="e"/>
-      <c r="AI47" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ47" s="4" t="e"/>
-      <c r="AK47" s="4" t="e"/>
-      <c r="AL47" s="4" t="e"/>
-      <c r="AM47" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN47" s="40" t="e"/>
-      <c r="AO47" s="40" t="e"/>
-    </row>
-    <row r="48" ht="33" customHeight="true" s="37" customFormat="true">
-      <c r="B48" s="39" t="e"/>
-      <c r="C48" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="47" t="e"/>
-      <c r="E48" s="47" t="e"/>
-      <c r="F48" s="47" t="e"/>
-      <c r="G48" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H48" s="4" t="e"/>
-      <c r="I48" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="J48" s="47" t="e"/>
-      <c r="K48" s="47" t="e"/>
-      <c r="L48" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="M48" s="47" t="e"/>
-      <c r="N48" s="39" t="e"/>
-      <c r="O48" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="P48" s="47" t="e"/>
-      <c r="Q48" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="R48" s="47" t="e"/>
-      <c r="S48" s="47" t="e"/>
-      <c r="T48" s="47" t="e"/>
-      <c r="U48" s="41" t="e"/>
-      <c r="V48" s="42" t="e"/>
-      <c r="W48" s="43" t="e"/>
-      <c r="X48" s="44" t="e"/>
-      <c r="Y48" s="45" t="e"/>
-      <c r="Z48" s="44" t="e"/>
-      <c r="AA48" s="46" t="e"/>
-      <c r="AB48" s="45" t="e"/>
-      <c r="AC48" s="44" t="e"/>
-      <c r="AD48" s="46" t="e"/>
-      <c r="AE48" s="46" t="e"/>
-      <c r="AF48" s="46" t="e"/>
-      <c r="AG48" s="46" t="e"/>
-      <c r="AH48" s="45" t="e"/>
-      <c r="AI48" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ48" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="AK48" s="47" t="e"/>
-      <c r="AL48" s="47" t="e"/>
-      <c r="AM48" s="44" t="e"/>
-      <c r="AN48" s="46" t="e"/>
-      <c r="AO48" s="45" t="e"/>
-    </row>
-    <row r="49" ht="11" customHeight="true" s="48" customFormat="true">
-      <c r="A49" s="48" t="e"/>
-      <c r="B49" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="49" t="e"/>
-      <c r="E49" s="49" t="e"/>
-      <c r="F49" s="49" t="e"/>
-      <c r="G49" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="H49" s="50" t="e"/>
-      <c r="I49" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="J49" s="49" t="e"/>
-      <c r="K49" s="49" t="e"/>
-      <c r="L49" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="M49" s="50" t="e"/>
-      <c r="N49" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="O49" s="50" t="s">
+      <c r="Q51" s="87" t="n">
         <v>60</v>
       </c>
-      <c r="P49" s="50" t="e"/>
-      <c r="Q49" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="R49" s="50" t="e"/>
-      <c r="S49" s="50" t="e"/>
-      <c r="T49" s="50" t="e"/>
-      <c r="U49" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="V49" s="50" t="e"/>
-      <c r="W49" s="50" t="e"/>
-      <c r="X49" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y49" s="50" t="e"/>
-      <c r="Z49" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA49" s="50" t="e"/>
-      <c r="AB49" s="50" t="e"/>
-      <c r="AC49" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD49" s="50" t="e"/>
-      <c r="AE49" s="50" t="e"/>
-      <c r="AF49" s="50" t="e"/>
-      <c r="AG49" s="50" t="e"/>
-      <c r="AH49" s="50" t="e"/>
-      <c r="AI49" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ49" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK49" s="50" t="e"/>
-      <c r="AL49" s="50" t="e"/>
-      <c r="AM49" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN49" s="50" t="e"/>
-      <c r="AO49" s="50" t="e"/>
-    </row>
-    <row r="50" ht="11" customHeight="true" s="37" customFormat="true">
-      <c r="A50" s="37" t="e"/>
-      <c r="B50" s="51" t="n">
-        <v>21</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="52" t="e"/>
-      <c r="E50" s="52" t="e"/>
-      <c r="F50" s="52" t="e"/>
-      <c r="G50" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="H50" s="53" t="e"/>
-      <c r="I50" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="J50" s="54" t="e"/>
-      <c r="K50" s="54" t="e"/>
-      <c r="L50" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="M50" s="55" t="e"/>
-      <c r="N50" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="O50" s="57" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="P50" s="57" t="e"/>
-      <c r="Q50" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="R50" s="58" t="e"/>
-      <c r="S50" s="58" t="e"/>
-      <c r="T50" s="58" t="e"/>
-      <c r="U50" s="57" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="V50" s="57" t="e"/>
-      <c r="W50" s="57" t="e"/>
-      <c r="X50" s="59" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="Y50" s="59" t="e"/>
-      <c r="Z50" s="60" t="n">
-        <v>299</v>
-      </c>
-      <c r="AA50" s="60" t="e"/>
-      <c r="AB50" s="60" t="e"/>
-      <c r="AC50" s="61" t="n">
-        <v>182.39</v>
-      </c>
-      <c r="AD50" s="61" t="e"/>
-      <c r="AE50" s="61" t="e"/>
-      <c r="AF50" s="61" t="e"/>
-      <c r="AG50" s="61" t="e"/>
-      <c r="AH50" s="61" t="e"/>
-      <c r="AI50" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ50" s="62" t="e"/>
-      <c r="AK50" s="63" t="e"/>
-      <c r="AL50" s="64" t="e"/>
-      <c r="AM50" s="65" t="n">
-        <v>182.39</v>
-      </c>
-      <c r="AN50" s="65" t="e"/>
-      <c r="AO50" s="65" t="e"/>
-    </row>
-    <row r="51" ht="11" customHeight="true" s="37" customFormat="true">
-      <c r="A51" s="37" t="e"/>
-      <c r="B51" s="51" t="n">
-        <v>22</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51" s="52" t="e"/>
-      <c r="E51" s="52" t="e"/>
-      <c r="F51" s="52" t="e"/>
-      <c r="G51" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="H51" s="53" t="e"/>
-      <c r="I51" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="J51" s="54" t="e"/>
-      <c r="K51" s="54" t="e"/>
-      <c r="L51" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="M51" s="55" t="e"/>
-      <c r="N51" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="O51" s="57" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="P51" s="57" t="e"/>
-      <c r="Q51" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="R51" s="58" t="e"/>
-      <c r="S51" s="58" t="e"/>
-      <c r="T51" s="58" t="e"/>
-      <c r="U51" s="57" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="V51" s="57" t="e"/>
-      <c r="W51" s="57" t="e"/>
-      <c r="X51" s="59" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="Y51" s="59" t="e"/>
-      <c r="Z51" s="83" t="n">
-        <v>1087.98</v>
-      </c>
-      <c r="AA51" s="83" t="e"/>
-      <c r="AB51" s="83" t="e"/>
-      <c r="AC51" s="61" t="n">
-        <v>113.15</v>
-      </c>
-      <c r="AD51" s="61" t="e"/>
-      <c r="AE51" s="61" t="e"/>
-      <c r="AF51" s="61" t="e"/>
-      <c r="AG51" s="61" t="e"/>
-      <c r="AH51" s="61" t="e"/>
-      <c r="AI51" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ51" s="62" t="e"/>
+      <c r="R51" s="87" t="e"/>
+      <c r="S51" s="87" t="e"/>
+      <c r="T51" s="87" t="e"/>
+      <c r="U51" s="88" t="n">
+        <v>33.992</v>
+      </c>
+      <c r="V51" s="88" t="e"/>
+      <c r="W51" s="88" t="e"/>
+      <c r="X51" s="89" t="n">
+        <v>47.992</v>
+      </c>
+      <c r="Y51" s="89" t="e"/>
+      <c r="Z51" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA51" s="90" t="e"/>
+      <c r="AB51" s="90" t="e"/>
+      <c r="AC51" s="91" t="n">
+        <v>12919.3</v>
+      </c>
+      <c r="AD51" s="91" t="e"/>
+      <c r="AE51" s="91" t="e"/>
+      <c r="AF51" s="91" t="e"/>
+      <c r="AG51" s="91" t="e"/>
+      <c r="AH51" s="91" t="e"/>
+      <c r="AI51" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ51" s="92" t="e"/>
       <c r="AK51" s="63" t="e"/>
       <c r="AL51" s="64" t="e"/>
-      <c r="AM51" s="65" t="n">
-        <v>113.15</v>
-      </c>
-      <c r="AN51" s="65" t="e"/>
-      <c r="AO51" s="65" t="e"/>
-    </row>
-    <row r="52" ht="11" customHeight="true" s="37" customFormat="true">
-      <c r="A52" s="37" t="e"/>
-      <c r="B52" s="51" t="n">
-        <v>23</v>
-      </c>
-      <c r="C52" s="52" t="s">
+      <c r="AM51" s="91" t="n">
+        <v>12919.3</v>
+      </c>
+      <c r="AN51" s="91" t="e"/>
+      <c r="AO51" s="91" t="e"/>
+    </row>
+    <row r="52" ht="11" customHeight="true" s="1" customFormat="true">
+      <c r="E52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K52" s="8" t="e"/>
+      <c r="L52" s="8" t="e"/>
+      <c r="M52" s="8" t="e"/>
+      <c r="N52" s="8" t="e"/>
+      <c r="O52" s="8" t="e"/>
+      <c r="P52" s="8" t="e"/>
+      <c r="Q52" s="8" t="e"/>
+      <c r="R52" s="8" t="e"/>
+      <c r="S52" s="8" t="e"/>
+      <c r="T52" s="8" t="e"/>
+      <c r="U52" s="8" t="e"/>
+      <c r="V52" s="8" t="e"/>
+    </row>
+    <row r="53" ht="11" customHeight="true" s="1" customFormat="true">
+      <c r="E53" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="G53" s="8" t="e"/>
+      <c r="H53" s="8" t="e"/>
+      <c r="I53" s="8" t="e"/>
+      <c r="J53" s="8" t="e"/>
+      <c r="K53" s="8" t="e"/>
+      <c r="L53" s="8" t="e"/>
+      <c r="M53" s="8" t="e"/>
+      <c r="N53" s="8" t="e"/>
+      <c r="O53" s="8" t="e"/>
+      <c r="P53" s="8" t="e"/>
+      <c r="Q53" s="8" t="e"/>
+      <c r="R53" s="94" t="e"/>
+      <c r="S53" s="8" t="e"/>
+      <c r="T53" s="8" t="e"/>
+      <c r="U53" s="8" t="e"/>
+      <c r="V53" s="8" t="e"/>
+      <c r="W53" s="8" t="e"/>
+      <c r="X53" s="8" t="e"/>
+      <c r="Y53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z53" s="1" t="e"/>
+    </row>
+    <row r="54" ht="8" customHeight="true" s="1" customFormat="true">
+      <c r="F54" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="G54" s="12" t="e"/>
+      <c r="H54" s="12" t="e"/>
+      <c r="I54" s="12" t="e"/>
+      <c r="J54" s="12" t="e"/>
+      <c r="K54" s="12" t="e"/>
+      <c r="L54" s="12" t="e"/>
+      <c r="M54" s="12" t="e"/>
+      <c r="N54" s="12" t="e"/>
+      <c r="O54" s="12" t="e"/>
+      <c r="P54" s="12" t="e"/>
+      <c r="Q54" s="12" t="e"/>
+      <c r="R54" s="12" t="e"/>
+      <c r="S54" s="12" t="e"/>
+      <c r="T54" s="12" t="e"/>
+      <c r="U54" s="12" t="e"/>
+      <c r="V54" s="12" t="e"/>
+      <c r="W54" s="12" t="e"/>
+      <c r="X54" s="12" t="e"/>
+      <c r="AH54" s="99" t="e"/>
+      <c r="AI54" s="99" t="e"/>
+      <c r="AJ54" s="99" t="e"/>
+      <c r="AK54" s="99" t="e"/>
+      <c r="AL54" s="99" t="e"/>
+      <c r="AM54" s="99" t="e"/>
+      <c r="AN54" s="99" t="e"/>
+      <c r="AO54" s="99" t="e"/>
+      <c r="AP54" s="99" t="e"/>
+    </row>
+    <row r="55" ht="11" customHeight="true" s="1" customFormat="true">
+      <c r="F55" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="D52" s="52" t="e"/>
-      <c r="E52" s="52" t="e"/>
-      <c r="F52" s="52" t="e"/>
-      <c r="G52" s="53" t="s">
+      <c r="G55" s="102" t="e"/>
+      <c r="H55" s="102" t="e"/>
+      <c r="I55" s="102" t="e"/>
+      <c r="K55" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H52" s="53" t="e"/>
-      <c r="I52" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="J52" s="54" t="e"/>
-      <c r="K52" s="54" t="e"/>
-      <c r="L52" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="M52" s="55" t="e"/>
-      <c r="N52" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="O52" s="57" t="n">
-        <v>1</v>
-      </c>
-      <c r="P52" s="57" t="e"/>
-      <c r="Q52" s="58" t="n">
-        <v>3</v>
-      </c>
-      <c r="R52" s="58" t="e"/>
-      <c r="S52" s="58" t="e"/>
-      <c r="T52" s="58" t="e"/>
-      <c r="U52" s="57" t="n">
-        <v>2.634</v>
-      </c>
-      <c r="V52" s="57" t="e"/>
-      <c r="W52" s="57" t="e"/>
-      <c r="X52" s="59" t="n">
-        <v>2.634</v>
-      </c>
-      <c r="Y52" s="59" t="e"/>
-      <c r="Z52" s="60" t="n">
-        <v>164.8</v>
-      </c>
-      <c r="AA52" s="60" t="e"/>
-      <c r="AB52" s="60" t="e"/>
-      <c r="AC52" s="61" t="n">
-        <v>434.08</v>
-      </c>
-      <c r="AD52" s="61" t="e"/>
-      <c r="AE52" s="61" t="e"/>
-      <c r="AF52" s="61" t="e"/>
-      <c r="AG52" s="61" t="e"/>
-      <c r="AH52" s="61" t="e"/>
-      <c r="AI52" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ52" s="62" t="e"/>
-      <c r="AK52" s="63" t="e"/>
-      <c r="AL52" s="64" t="e"/>
-      <c r="AM52" s="65" t="n">
-        <v>434.08</v>
-      </c>
-      <c r="AN52" s="65" t="e"/>
-      <c r="AO52" s="65" t="e"/>
-    </row>
-    <row r="53" ht="11" customHeight="true">
-      <c r="B53" s="71" t="e"/>
-      <c r="C53" s="71" t="e"/>
-      <c r="D53" s="71" t="e"/>
-      <c r="E53" s="71" t="e"/>
-      <c r="F53" s="71" t="e"/>
-      <c r="G53" s="72" t="e"/>
-      <c r="H53" s="72" t="e"/>
-      <c r="I53" s="71" t="e"/>
-      <c r="J53" s="71" t="e"/>
-      <c r="K53" s="71" t="e"/>
-      <c r="L53" s="72" t="e"/>
-      <c r="M53" s="72" t="e"/>
-      <c r="N53" s="72" t="e"/>
-      <c r="O53" s="73" t="e"/>
-      <c r="P53" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q53" s="74" t="n">
-        <v>5</v>
-      </c>
-      <c r="R53" s="74" t="e"/>
-      <c r="S53" s="74" t="e"/>
-      <c r="T53" s="74" t="e"/>
-      <c r="U53" s="75" t="n">
-        <v>3.348</v>
-      </c>
-      <c r="V53" s="75" t="e"/>
-      <c r="W53" s="75" t="e"/>
-      <c r="X53" s="76" t="n">
-        <v>3.348</v>
-      </c>
-      <c r="Y53" s="76" t="e"/>
-      <c r="Z53" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA53" s="77" t="e"/>
-      <c r="AB53" s="77" t="e"/>
-      <c r="AC53" s="84" t="n">
-        <v>729.62</v>
-      </c>
-      <c r="AD53" s="84" t="e"/>
-      <c r="AE53" s="84" t="e"/>
-      <c r="AF53" s="84" t="e"/>
-      <c r="AG53" s="84" t="e"/>
-      <c r="AH53" s="84" t="e"/>
-      <c r="AI53" s="79" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ53" s="80" t="e"/>
-      <c r="AK53" s="81" t="e"/>
-      <c r="AL53" s="81" t="e"/>
-      <c r="AM53" s="85" t="n">
-        <v>729.62</v>
-      </c>
-      <c r="AN53" s="85" t="e"/>
-      <c r="AO53" s="85" t="e"/>
-    </row>
-    <row r="54" ht="11" customHeight="true">
-      <c r="O54" s="86" t="e"/>
-      <c r="P54" s="86" t="s">
+      <c r="L55" s="1" t="e"/>
+      <c r="M55" s="1" t="e"/>
+      <c r="N55" s="1" t="e"/>
+      <c r="O55" s="1" t="e"/>
+      <c r="P55" s="1" t="e"/>
+      <c r="Q55" s="1" t="e"/>
+      <c r="S55" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="Q54" s="87" t="n">
-        <v>81</v>
-      </c>
-      <c r="R54" s="87" t="e"/>
-      <c r="S54" s="87" t="e"/>
-      <c r="T54" s="87" t="e"/>
-      <c r="U54" s="88" t="n">
-        <v>60.258</v>
-      </c>
-      <c r="V54" s="88" t="e"/>
-      <c r="W54" s="88" t="e"/>
-      <c r="X54" s="89" t="n">
-        <v>68.058</v>
-      </c>
-      <c r="Y54" s="89" t="e"/>
-      <c r="Z54" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA54" s="90" t="e"/>
-      <c r="AB54" s="90" t="e"/>
-      <c r="AC54" s="91" t="n">
-        <v>12534.42</v>
-      </c>
-      <c r="AD54" s="91" t="e"/>
-      <c r="AE54" s="91" t="e"/>
-      <c r="AF54" s="91" t="e"/>
-      <c r="AG54" s="91" t="e"/>
-      <c r="AH54" s="91" t="e"/>
-      <c r="AI54" s="90" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ54" s="92" t="e"/>
-      <c r="AK54" s="63" t="e"/>
-      <c r="AL54" s="64" t="e"/>
-      <c r="AM54" s="91" t="n">
-        <v>12534.42</v>
-      </c>
-      <c r="AN54" s="91" t="e"/>
-      <c r="AO54" s="91" t="e"/>
-    </row>
-    <row r="55" ht="11" customHeight="true" s="1" customFormat="true">
-      <c r="E55" s="1" t="s">
+      <c r="T55" s="93" t="e"/>
+      <c r="U55" s="93" t="e"/>
+      <c r="V55" s="93" t="e"/>
+      <c r="W55" s="93" t="e"/>
+      <c r="X55" s="93" t="e"/>
+      <c r="Y55" s="93" t="e"/>
+      <c r="Z55" s="93" t="e"/>
+      <c r="AA55" s="93" t="e"/>
+      <c r="AB55" s="93" t="e"/>
+      <c r="AC55" s="93" t="e"/>
+      <c r="AD55" s="93" t="e"/>
+      <c r="AE55" s="93" t="e"/>
+      <c r="AH55" s="96" t="e"/>
+      <c r="AI55" s="97" t="e"/>
+      <c r="AJ55" s="97" t="e"/>
+      <c r="AK55" s="97" t="e"/>
+      <c r="AL55" s="97" t="e"/>
+      <c r="AM55" s="97" t="e"/>
+      <c r="AN55" s="97" t="e"/>
+      <c r="AO55" s="97" t="e"/>
+      <c r="AP55" s="98" t="e"/>
+      <c r="AQ55" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="K55" s="8" t="e"/>
-      <c r="L55" s="8" t="e"/>
-      <c r="M55" s="8" t="e"/>
-      <c r="N55" s="8" t="e"/>
-      <c r="O55" s="8" t="e"/>
-      <c r="P55" s="8" t="e"/>
-      <c r="Q55" s="8" t="e"/>
-      <c r="R55" s="8" t="e"/>
-      <c r="S55" s="8" t="e"/>
-      <c r="T55" s="8" t="e"/>
-      <c r="U55" s="8" t="e"/>
-      <c r="V55" s="8" t="e"/>
-    </row>
-    <row r="56" ht="11" customHeight="true" s="1" customFormat="true">
-      <c r="E56" s="1" t="s">
+    </row>
+    <row r="56" ht="8" customHeight="true" s="1" customFormat="true">
+      <c r="F56" s="100" t="e"/>
+      <c r="G56" s="100" t="e"/>
+      <c r="H56" s="100" t="e"/>
+      <c r="I56" s="100" t="e"/>
+      <c r="S56" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="T56" s="104" t="e"/>
+      <c r="U56" s="104" t="e"/>
+      <c r="V56" s="104" t="e"/>
+      <c r="W56" s="103" t="e"/>
+      <c r="X56" s="103" t="e"/>
+      <c r="Y56" s="103" t="e"/>
+      <c r="Z56" s="103" t="e"/>
+      <c r="AA56" s="103" t="e"/>
+      <c r="AB56" s="103" t="e"/>
+      <c r="AC56" s="103" t="e"/>
+      <c r="AD56" s="103" t="e"/>
+      <c r="AE56" s="103" t="e"/>
+      <c r="AH56" s="99" t="e"/>
+      <c r="AI56" s="99" t="e"/>
+      <c r="AJ56" s="99" t="e"/>
+      <c r="AK56" s="99" t="e"/>
+      <c r="AL56" s="99" t="e"/>
+      <c r="AM56" s="99" t="e"/>
+      <c r="AN56" s="99" t="e"/>
+      <c r="AO56" s="99" t="e"/>
+      <c r="AP56" s="99" t="e"/>
+    </row>
+    <row r="57" ht="11" customHeight="true" s="1" customFormat="true">
+      <c r="E57" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F56" s="93" t="s">
+      <c r="F57" s="101" t="e"/>
+      <c r="G57" s="101" t="e"/>
+      <c r="H57" s="101" t="e"/>
+      <c r="I57" s="101" t="e"/>
+      <c r="K57" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G56" s="8" t="e"/>
-      <c r="H56" s="8" t="e"/>
-      <c r="I56" s="8" t="e"/>
-      <c r="J56" s="8" t="e"/>
-      <c r="K56" s="8" t="e"/>
-      <c r="L56" s="8" t="e"/>
-      <c r="M56" s="8" t="e"/>
-      <c r="N56" s="8" t="e"/>
-      <c r="O56" s="8" t="e"/>
-      <c r="P56" s="8" t="e"/>
-      <c r="Q56" s="8" t="e"/>
-      <c r="R56" s="94" t="e"/>
-      <c r="S56" s="8" t="e"/>
-      <c r="T56" s="8" t="e"/>
-      <c r="U56" s="8" t="e"/>
-      <c r="V56" s="8" t="e"/>
-      <c r="W56" s="8" t="e"/>
-      <c r="X56" s="8" t="e"/>
-      <c r="Y56" s="1" t="s">
+      <c r="L57" s="1" t="e"/>
+      <c r="M57" s="1" t="e"/>
+      <c r="N57" s="1" t="e"/>
+      <c r="O57" s="1" t="e"/>
+      <c r="P57" s="1" t="e"/>
+      <c r="Q57" s="1" t="e"/>
+      <c r="S57" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="T57" s="93" t="e"/>
+      <c r="U57" s="93" t="e"/>
+      <c r="V57" s="93" t="e"/>
+      <c r="W57" s="93" t="e"/>
+      <c r="X57" s="93" t="e"/>
+      <c r="Y57" s="93" t="e"/>
+      <c r="Z57" s="93" t="e"/>
+      <c r="AA57" s="93" t="e"/>
+      <c r="AB57" s="93" t="e"/>
+      <c r="AC57" s="93" t="e"/>
+      <c r="AD57" s="93" t="e"/>
+      <c r="AE57" s="93" t="e"/>
+      <c r="AF57" s="11" t="e"/>
+      <c r="AG57" s="11" t="e"/>
+      <c r="AH57" s="96" t="e"/>
+      <c r="AI57" s="97" t="e"/>
+      <c r="AJ57" s="97" t="e"/>
+      <c r="AK57" s="97" t="e"/>
+      <c r="AL57" s="97" t="e"/>
+      <c r="AM57" s="97" t="e"/>
+      <c r="AN57" s="97" t="e"/>
+      <c r="AO57" s="97" t="e"/>
+      <c r="AP57" s="98" t="e"/>
+    </row>
+    <row r="58" ht="8" customHeight="true" s="1" customFormat="true">
+      <c r="F58" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="G58" s="107" t="e"/>
+      <c r="H58" s="107" t="e"/>
+      <c r="I58" s="107" t="e"/>
+      <c r="J58" s="11" t="e"/>
+      <c r="S58" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="T58" s="12" t="e"/>
+      <c r="U58" s="12" t="e"/>
+      <c r="V58" s="12" t="e"/>
+      <c r="W58" s="12" t="e"/>
+      <c r="X58" s="12" t="e"/>
+      <c r="Y58" s="12" t="e"/>
+      <c r="Z58" s="12" t="e"/>
+      <c r="AA58" s="12" t="e"/>
+      <c r="AB58" s="12" t="e"/>
+      <c r="AC58" s="12" t="e"/>
+      <c r="AD58" s="103" t="e"/>
+      <c r="AE58" s="103" t="e"/>
+    </row>
+    <row r="59" ht="3" customHeight="true" s="1" customFormat="true"/>
+    <row r="60" ht="10" customHeight="true" s="1" customFormat="true">
+      <c r="B60" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="Z56" s="1" t="e"/>
-    </row>
-    <row r="57" ht="8" customHeight="true" s="1" customFormat="true">
-      <c r="F57" s="95" t="s">
+      <c r="C60" s="1" t="e"/>
+      <c r="D60" s="1" t="e"/>
+      <c r="H60" s="8" t="e"/>
+      <c r="I60" s="8" t="e"/>
+      <c r="K60" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="G57" s="12" t="e"/>
-      <c r="H57" s="12" t="e"/>
-      <c r="I57" s="12" t="e"/>
-      <c r="J57" s="12" t="e"/>
-      <c r="K57" s="12" t="e"/>
-      <c r="L57" s="12" t="e"/>
-      <c r="M57" s="12" t="e"/>
-      <c r="N57" s="12" t="e"/>
-      <c r="O57" s="12" t="e"/>
-      <c r="P57" s="12" t="e"/>
-      <c r="Q57" s="12" t="e"/>
-      <c r="R57" s="12" t="e"/>
-      <c r="S57" s="12" t="e"/>
-      <c r="T57" s="12" t="e"/>
-      <c r="U57" s="12" t="e"/>
-      <c r="V57" s="12" t="e"/>
-      <c r="W57" s="12" t="e"/>
-      <c r="X57" s="12" t="e"/>
-      <c r="AH57" s="99" t="e"/>
-      <c r="AI57" s="99" t="e"/>
-      <c r="AJ57" s="99" t="e"/>
-      <c r="AK57" s="99" t="e"/>
-      <c r="AL57" s="99" t="e"/>
-      <c r="AM57" s="99" t="e"/>
-      <c r="AN57" s="99" t="e"/>
-      <c r="AO57" s="99" t="e"/>
-      <c r="AP57" s="99" t="e"/>
-    </row>
-    <row r="58" ht="11" customHeight="true" s="1" customFormat="true">
-      <c r="F58" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="G58" s="102" t="e"/>
-      <c r="H58" s="102" t="e"/>
-      <c r="I58" s="102" t="e"/>
-      <c r="K58" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L58" s="1" t="e"/>
-      <c r="M58" s="1" t="e"/>
-      <c r="N58" s="1" t="e"/>
-      <c r="O58" s="1" t="e"/>
-      <c r="P58" s="1" t="e"/>
-      <c r="Q58" s="1" t="e"/>
-      <c r="S58" s="93" t="s">
-        <v>133</v>
-      </c>
-      <c r="T58" s="93" t="e"/>
-      <c r="U58" s="93" t="e"/>
-      <c r="V58" s="93" t="e"/>
-      <c r="W58" s="93" t="e"/>
-      <c r="X58" s="93" t="e"/>
-      <c r="Y58" s="93" t="e"/>
-      <c r="Z58" s="93" t="e"/>
-      <c r="AA58" s="93" t="e"/>
-      <c r="AB58" s="93" t="e"/>
-      <c r="AC58" s="93" t="e"/>
-      <c r="AD58" s="93" t="e"/>
-      <c r="AE58" s="93" t="e"/>
-      <c r="AH58" s="96" t="e"/>
-      <c r="AI58" s="97" t="e"/>
-      <c r="AJ58" s="97" t="e"/>
-      <c r="AK58" s="97" t="e"/>
-      <c r="AL58" s="97" t="e"/>
-      <c r="AM58" s="97" t="e"/>
-      <c r="AN58" s="97" t="e"/>
-      <c r="AO58" s="97" t="e"/>
-      <c r="AP58" s="98" t="e"/>
-      <c r="AQ58" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" ht="8" customHeight="true" s="1" customFormat="true">
-      <c r="F59" s="100" t="e"/>
-      <c r="G59" s="100" t="e"/>
-      <c r="H59" s="100" t="e"/>
-      <c r="I59" s="100" t="e"/>
-      <c r="S59" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="T59" s="104" t="e"/>
-      <c r="U59" s="104" t="e"/>
-      <c r="V59" s="104" t="e"/>
-      <c r="W59" s="103" t="e"/>
-      <c r="X59" s="103" t="e"/>
-      <c r="Y59" s="103" t="e"/>
-      <c r="Z59" s="103" t="e"/>
-      <c r="AA59" s="103" t="e"/>
-      <c r="AB59" s="103" t="e"/>
-      <c r="AC59" s="103" t="e"/>
-      <c r="AD59" s="103" t="e"/>
-      <c r="AE59" s="103" t="e"/>
-      <c r="AH59" s="99" t="e"/>
-      <c r="AI59" s="99" t="e"/>
-      <c r="AJ59" s="99" t="e"/>
-      <c r="AK59" s="99" t="e"/>
-      <c r="AL59" s="99" t="e"/>
-      <c r="AM59" s="99" t="e"/>
-      <c r="AN59" s="99" t="e"/>
-      <c r="AO59" s="99" t="e"/>
-      <c r="AP59" s="99" t="e"/>
-    </row>
-    <row r="60" ht="11" customHeight="true" s="1" customFormat="true">
-      <c r="E60" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F60" s="101" t="e"/>
-      <c r="G60" s="101" t="e"/>
-      <c r="H60" s="101" t="e"/>
-      <c r="I60" s="101" t="e"/>
-      <c r="K60" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="L60" s="1" t="e"/>
       <c r="M60" s="1" t="e"/>
@@ -4632,500 +4462,431 @@
       <c r="O60" s="1" t="e"/>
       <c r="P60" s="1" t="e"/>
       <c r="Q60" s="1" t="e"/>
-      <c r="S60" s="93" t="s">
+      <c r="R60" s="108" t="e"/>
+      <c r="W60" s="86" t="e"/>
+      <c r="X60" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y60" s="8" t="e"/>
+      <c r="Z60" s="8" t="e"/>
+      <c r="AA60" s="8" t="e"/>
+      <c r="AB60" s="8" t="e"/>
+      <c r="AC60" s="8" t="e"/>
+      <c r="AD60" s="109" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE60" s="8" t="e"/>
+      <c r="AF60" s="8" t="e"/>
+      <c r="AG60" s="8" t="e"/>
+      <c r="AH60" s="8" t="e"/>
+      <c r="AI60" s="8" t="e"/>
+      <c r="AJ60" s="8" t="e"/>
+      <c r="AK60" s="8" t="e"/>
+      <c r="AL60" s="8" t="e"/>
+      <c r="AM60" s="8" t="e"/>
+      <c r="AN60" s="8" t="e"/>
+      <c r="AO60" s="8" t="e"/>
+      <c r="AP60" s="8" t="e"/>
+    </row>
+    <row r="61" ht="8" customHeight="true" s="1" customFormat="true">
+      <c r="H61" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="I61" s="107" t="e"/>
+      <c r="J61" s="107" t="e"/>
+      <c r="R61" s="108" t="e"/>
+    </row>
+    <row r="62" ht="10" customHeight="true" s="1" customFormat="true">
+      <c r="B62" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="T60" s="93" t="e"/>
-      <c r="U60" s="93" t="e"/>
-      <c r="V60" s="93" t="e"/>
-      <c r="W60" s="93" t="e"/>
-      <c r="X60" s="93" t="e"/>
-      <c r="Y60" s="93" t="e"/>
-      <c r="Z60" s="93" t="e"/>
-      <c r="AA60" s="93" t="e"/>
-      <c r="AB60" s="93" t="e"/>
-      <c r="AC60" s="93" t="e"/>
-      <c r="AD60" s="93" t="e"/>
-      <c r="AE60" s="93" t="e"/>
-      <c r="AF60" s="11" t="e"/>
-      <c r="AG60" s="11" t="e"/>
-      <c r="AH60" s="96" t="e"/>
-      <c r="AI60" s="97" t="e"/>
-      <c r="AJ60" s="97" t="e"/>
-      <c r="AK60" s="97" t="e"/>
-      <c r="AL60" s="97" t="e"/>
-      <c r="AM60" s="97" t="e"/>
-      <c r="AN60" s="97" t="e"/>
-      <c r="AO60" s="97" t="e"/>
-      <c r="AP60" s="98" t="e"/>
-    </row>
-    <row r="61" ht="8" customHeight="true" s="1" customFormat="true">
-      <c r="F61" s="107" t="s">
-        <v>130</v>
-      </c>
-      <c r="G61" s="107" t="e"/>
-      <c r="H61" s="107" t="e"/>
-      <c r="I61" s="107" t="e"/>
-      <c r="J61" s="11" t="e"/>
-      <c r="S61" s="95" t="s">
-        <v>130</v>
-      </c>
-      <c r="T61" s="12" t="e"/>
-      <c r="U61" s="12" t="e"/>
-      <c r="V61" s="12" t="e"/>
-      <c r="W61" s="12" t="e"/>
-      <c r="X61" s="12" t="e"/>
-      <c r="Y61" s="12" t="e"/>
-      <c r="Z61" s="12" t="e"/>
-      <c r="AA61" s="12" t="e"/>
-      <c r="AB61" s="12" t="e"/>
-      <c r="AC61" s="12" t="e"/>
-      <c r="AD61" s="103" t="e"/>
-      <c r="AE61" s="103" t="e"/>
-    </row>
-    <row r="62" ht="3" customHeight="true" s="1" customFormat="true"/>
-    <row r="63" ht="10" customHeight="true" s="1" customFormat="true">
-      <c r="B63" s="1" t="s">
+      <c r="C62" s="110" t="e"/>
+      <c r="D62" s="110" t="e"/>
+      <c r="F62" s="1" t="e"/>
+      <c r="G62" s="1" t="e"/>
+      <c r="H62" s="111" t="e"/>
+      <c r="I62" s="111" t="e"/>
+      <c r="J62" s="1" t="e"/>
+      <c r="K62" s="1" t="e"/>
+      <c r="L62" s="1" t="e"/>
+      <c r="M62" s="1" t="e"/>
+      <c r="N62" s="1" t="e"/>
+      <c r="O62" s="1" t="e"/>
+      <c r="P62" s="1" t="e"/>
+      <c r="Q62" s="1" t="e"/>
+      <c r="R62" s="108" t="e"/>
+      <c r="Y62" s="102" t="e"/>
+      <c r="Z62" s="102" t="e"/>
+      <c r="AA62" s="102" t="e"/>
+      <c r="AB62" s="102" t="e"/>
+      <c r="AC62" s="102" t="e"/>
+      <c r="AD62" s="102" t="e"/>
+      <c r="AE62" s="102" t="e"/>
+      <c r="AF62" s="102" t="e"/>
+      <c r="AG62" s="102" t="e"/>
+      <c r="AH62" s="102" t="e"/>
+      <c r="AI62" s="102" t="e"/>
+      <c r="AJ62" s="102" t="e"/>
+      <c r="AK62" s="102" t="e"/>
+      <c r="AL62" s="102" t="e"/>
+      <c r="AM62" s="102" t="e"/>
+      <c r="AN62" s="102" t="e"/>
+      <c r="AO62" s="102" t="e"/>
+      <c r="AP62" s="102" t="e"/>
+    </row>
+    <row r="63" ht="11" customHeight="true">
+      <c r="B63" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="114" t="e"/>
+      <c r="D63" s="114" t="e"/>
+      <c r="E63" s="113" t="e"/>
+      <c r="F63" s="113" t="e"/>
+      <c r="G63" s="113" t="e"/>
+      <c r="H63" s="113" t="e"/>
+      <c r="I63" s="113" t="e"/>
+      <c r="J63" s="113" t="e"/>
+      <c r="K63" s="113" t="e"/>
+      <c r="L63" s="113" t="e"/>
+      <c r="M63" s="113" t="e"/>
+      <c r="N63" s="113" t="e"/>
+      <c r="O63" s="113" t="e"/>
+      <c r="P63" s="113" t="e"/>
+      <c r="Q63" s="113" t="e"/>
+      <c r="R63" s="112" t="e"/>
+      <c r="T63" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="U63" s="1" t="e"/>
+      <c r="V63" s="1" t="e"/>
+      <c r="Y63" s="101" t="e"/>
+      <c r="Z63" s="101" t="e"/>
+      <c r="AA63" s="101" t="e"/>
+      <c r="AB63" s="101" t="e"/>
+      <c r="AC63" s="101" t="e"/>
+      <c r="AD63" s="101" t="e"/>
+      <c r="AE63" s="101" t="e"/>
+      <c r="AF63" s="101" t="e"/>
+      <c r="AG63" s="101" t="e"/>
+      <c r="AH63" s="101" t="e"/>
+      <c r="AI63" s="101" t="e"/>
+      <c r="AJ63" s="101" t="e"/>
+      <c r="AK63" s="101" t="e"/>
+      <c r="AL63" s="101" t="e"/>
+      <c r="AM63" s="101" t="e"/>
+      <c r="AN63" s="101" t="e"/>
+      <c r="AO63" s="101" t="e"/>
+      <c r="AP63" s="101" t="e"/>
+    </row>
+    <row r="64" ht="8" customHeight="true" s="1" customFormat="true">
+      <c r="B64" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="118" t="e"/>
+      <c r="D64" s="118" t="e"/>
+      <c r="E64" s="118" t="e"/>
+      <c r="F64" s="118" t="e"/>
+      <c r="G64" s="118" t="e"/>
+      <c r="H64" s="118" t="e"/>
+      <c r="I64" s="118" t="e"/>
+      <c r="J64" s="118" t="e"/>
+      <c r="K64" s="118" t="e"/>
+      <c r="L64" s="118" t="e"/>
+      <c r="M64" s="118" t="e"/>
+      <c r="N64" s="118" t="e"/>
+      <c r="O64" s="118" t="e"/>
+      <c r="P64" s="118" t="e"/>
+      <c r="Q64" s="118" t="e"/>
+      <c r="R64" s="108" t="e"/>
+      <c r="Y64" s="107" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z64" s="107" t="e"/>
+      <c r="AA64" s="107" t="e"/>
+      <c r="AB64" s="107" t="e"/>
+      <c r="AC64" s="107" t="e"/>
+      <c r="AD64" s="107" t="e"/>
+      <c r="AE64" s="107" t="e"/>
+      <c r="AF64" s="107" t="e"/>
+      <c r="AG64" s="107" t="e"/>
+      <c r="AH64" s="107" t="e"/>
+      <c r="AI64" s="107" t="e"/>
+      <c r="AJ64" s="107" t="e"/>
+      <c r="AK64" s="107" t="e"/>
+      <c r="AL64" s="107" t="e"/>
+      <c r="AM64" s="107" t="e"/>
+      <c r="AN64" s="107" t="e"/>
+      <c r="AO64" s="107" t="e"/>
+      <c r="AP64" s="107" t="e"/>
+    </row>
+    <row r="65" ht="11" customHeight="true" s="1" customFormat="true">
+      <c r="B65" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C63" s="1" t="e"/>
-      <c r="D63" s="1" t="e"/>
-      <c r="H63" s="8" t="e"/>
-      <c r="I63" s="8" t="e"/>
-      <c r="K63" s="1" t="s">
+      <c r="C65" s="1" t="e"/>
+      <c r="D65" s="1" t="e"/>
+      <c r="E65" s="101" t="e"/>
+      <c r="F65" s="101" t="e"/>
+      <c r="G65" s="101" t="e"/>
+      <c r="H65" s="8" t="e"/>
+      <c r="I65" s="8" t="e"/>
+      <c r="K65" s="101" t="e"/>
+      <c r="L65" s="101" t="e"/>
+      <c r="M65" s="101" t="e"/>
+      <c r="N65" s="101" t="e"/>
+      <c r="O65" s="101" t="e"/>
+      <c r="P65" s="101" t="e"/>
+      <c r="Q65" s="101" t="e"/>
+      <c r="R65" s="108" t="e"/>
+      <c r="Y65" s="101" t="e"/>
+      <c r="Z65" s="101" t="e"/>
+      <c r="AA65" s="101" t="e"/>
+      <c r="AB65" s="101" t="e"/>
+      <c r="AC65" s="101" t="e"/>
+      <c r="AD65" s="101" t="e"/>
+      <c r="AE65" s="101" t="e"/>
+      <c r="AF65" s="101" t="e"/>
+      <c r="AG65" s="101" t="e"/>
+      <c r="AH65" s="101" t="e"/>
+      <c r="AI65" s="101" t="e"/>
+      <c r="AJ65" s="101" t="e"/>
+      <c r="AK65" s="101" t="e"/>
+      <c r="AL65" s="101" t="e"/>
+      <c r="AM65" s="101" t="e"/>
+      <c r="AN65" s="101" t="e"/>
+      <c r="AO65" s="101" t="e"/>
+      <c r="AP65" s="101" t="e"/>
+    </row>
+    <row r="66" ht="8" customHeight="true" s="1" customFormat="true">
+      <c r="E66" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="L63" s="1" t="e"/>
-      <c r="M63" s="1" t="e"/>
-      <c r="N63" s="1" t="e"/>
-      <c r="O63" s="1" t="e"/>
-      <c r="P63" s="1" t="e"/>
-      <c r="Q63" s="1" t="e"/>
-      <c r="R63" s="108" t="e"/>
-      <c r="W63" s="86" t="e"/>
-      <c r="X63" s="86" t="s">
+      <c r="H66" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="Y63" s="8" t="e"/>
-      <c r="Z63" s="8" t="e"/>
-      <c r="AA63" s="8" t="e"/>
-      <c r="AB63" s="8" t="e"/>
-      <c r="AC63" s="8" t="e"/>
-      <c r="AD63" s="109" t="s">
+      <c r="I66" s="12" t="e"/>
+      <c r="K66" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="AE63" s="8" t="e"/>
-      <c r="AF63" s="8" t="e"/>
-      <c r="AG63" s="8" t="e"/>
-      <c r="AH63" s="8" t="e"/>
-      <c r="AI63" s="8" t="e"/>
-      <c r="AJ63" s="8" t="e"/>
-      <c r="AK63" s="8" t="e"/>
-      <c r="AL63" s="8" t="e"/>
-      <c r="AM63" s="8" t="e"/>
-      <c r="AN63" s="8" t="e"/>
-      <c r="AO63" s="8" t="e"/>
-      <c r="AP63" s="8" t="e"/>
-    </row>
-    <row r="64" ht="8" customHeight="true" s="1" customFormat="true">
-      <c r="H64" s="107" t="s">
-        <v>130</v>
-      </c>
-      <c r="I64" s="107" t="e"/>
-      <c r="J64" s="107" t="e"/>
-      <c r="R64" s="108" t="e"/>
-    </row>
-    <row r="65" ht="10" customHeight="true" s="1" customFormat="true">
-      <c r="B65" s="110" t="s">
+      <c r="L66" s="12" t="e"/>
+      <c r="M66" s="12" t="e"/>
+      <c r="N66" s="12" t="e"/>
+      <c r="O66" s="12" t="e"/>
+      <c r="P66" s="12" t="e"/>
+      <c r="Q66" s="12" t="e"/>
+      <c r="R66" s="108" t="e"/>
+      <c r="Y66" s="107" t="e"/>
+      <c r="Z66" s="107" t="e"/>
+      <c r="AA66" s="107" t="e"/>
+      <c r="AB66" s="107" t="e"/>
+      <c r="AC66" s="107" t="e"/>
+      <c r="AD66" s="107" t="e"/>
+      <c r="AE66" s="107" t="e"/>
+      <c r="AF66" s="107" t="e"/>
+      <c r="AG66" s="107" t="e"/>
+      <c r="AH66" s="107" t="e"/>
+      <c r="AI66" s="107" t="e"/>
+      <c r="AJ66" s="107" t="e"/>
+      <c r="AK66" s="107" t="e"/>
+      <c r="AL66" s="107" t="e"/>
+      <c r="AM66" s="107" t="e"/>
+      <c r="AN66" s="107" t="e"/>
+      <c r="AO66" s="107" t="e"/>
+      <c r="AP66" s="107" t="e"/>
+    </row>
+    <row r="67" ht="11" customHeight="true">
+      <c r="B67" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="C65" s="110" t="e"/>
-      <c r="D65" s="110" t="e"/>
-      <c r="F65" s="1" t="e"/>
-      <c r="G65" s="1" t="e"/>
-      <c r="H65" s="111" t="e"/>
-      <c r="I65" s="111" t="e"/>
-      <c r="J65" s="1" t="e"/>
-      <c r="K65" s="1" t="e"/>
-      <c r="L65" s="1" t="e"/>
-      <c r="M65" s="1" t="e"/>
-      <c r="N65" s="1" t="e"/>
-      <c r="O65" s="1" t="e"/>
-      <c r="P65" s="1" t="e"/>
-      <c r="Q65" s="1" t="e"/>
-      <c r="R65" s="108" t="e"/>
-      <c r="Y65" s="102" t="e"/>
-      <c r="Z65" s="102" t="e"/>
-      <c r="AA65" s="102" t="e"/>
-      <c r="AB65" s="102" t="e"/>
-      <c r="AC65" s="102" t="e"/>
-      <c r="AD65" s="102" t="e"/>
-      <c r="AE65" s="102" t="e"/>
-      <c r="AF65" s="102" t="e"/>
-      <c r="AG65" s="102" t="e"/>
-      <c r="AH65" s="102" t="e"/>
-      <c r="AI65" s="102" t="e"/>
-      <c r="AJ65" s="102" t="e"/>
-      <c r="AK65" s="102" t="e"/>
-      <c r="AL65" s="102" t="e"/>
-      <c r="AM65" s="102" t="e"/>
-      <c r="AN65" s="102" t="e"/>
-      <c r="AO65" s="102" t="e"/>
-      <c r="AP65" s="102" t="e"/>
-    </row>
-    <row r="66" ht="11" customHeight="true">
-      <c r="B66" s="115" t="s">
+      <c r="C67" s="111" t="e"/>
+      <c r="D67" s="111" t="e"/>
+      <c r="H67" s="8" t="e"/>
+      <c r="I67" s="8" t="e"/>
+      <c r="K67" s="101" t="e"/>
+      <c r="L67" s="101" t="e"/>
+      <c r="M67" s="101" t="e"/>
+      <c r="N67" s="101" t="e"/>
+      <c r="O67" s="101" t="e"/>
+      <c r="P67" s="101" t="e"/>
+      <c r="Q67" s="101" t="e"/>
+      <c r="R67" s="108" t="e"/>
+      <c r="T67" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C66" s="114" t="e"/>
-      <c r="D66" s="114" t="e"/>
-      <c r="E66" s="113" t="e"/>
-      <c r="F66" s="113" t="e"/>
-      <c r="G66" s="113" t="e"/>
-      <c r="H66" s="113" t="e"/>
-      <c r="I66" s="113" t="e"/>
-      <c r="J66" s="113" t="e"/>
-      <c r="K66" s="113" t="e"/>
-      <c r="L66" s="113" t="e"/>
-      <c r="M66" s="113" t="e"/>
-      <c r="N66" s="113" t="e"/>
-      <c r="O66" s="113" t="e"/>
-      <c r="P66" s="113" t="e"/>
-      <c r="Q66" s="113" t="e"/>
-      <c r="R66" s="112" t="e"/>
-      <c r="T66" s="1" t="s">
+      <c r="U67" s="1" t="e"/>
+      <c r="V67" s="1" t="e"/>
+      <c r="Y67" s="8" t="e"/>
+      <c r="Z67" s="8" t="e"/>
+      <c r="AB67" s="8" t="e"/>
+      <c r="AC67" s="8" t="e"/>
+      <c r="AD67" s="8" t="e"/>
+      <c r="AE67" s="8" t="e"/>
+      <c r="AH67" s="8" t="e"/>
+      <c r="AI67" s="8" t="e"/>
+      <c r="AJ67" s="8" t="e"/>
+      <c r="AK67" s="8" t="e"/>
+      <c r="AL67" s="8" t="e"/>
+      <c r="AM67" s="8" t="e"/>
+      <c r="AN67" s="8" t="e"/>
+      <c r="AO67" s="8" t="e"/>
+      <c r="AP67" s="8" t="e"/>
+    </row>
+    <row r="68" ht="8" customHeight="true" s="1" customFormat="true">
+      <c r="E68" s="119" t="e"/>
+      <c r="F68" s="119" t="e"/>
+      <c r="G68" s="119" t="e"/>
+      <c r="H68" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="I68" s="12" t="e"/>
+      <c r="K68" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="L68" s="12" t="e"/>
+      <c r="M68" s="12" t="e"/>
+      <c r="N68" s="12" t="e"/>
+      <c r="O68" s="12" t="e"/>
+      <c r="P68" s="12" t="e"/>
+      <c r="Q68" s="12" t="e"/>
+      <c r="R68" s="108" t="e"/>
+      <c r="Y68" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z68" s="12" t="e"/>
+      <c r="AB68" s="107" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC68" s="107" t="e"/>
+      <c r="AD68" s="107" t="e"/>
+      <c r="AE68" s="107" t="e"/>
+      <c r="AH68" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI68" s="12" t="e"/>
+      <c r="AJ68" s="12" t="e"/>
+      <c r="AK68" s="12" t="e"/>
+      <c r="AL68" s="12" t="e"/>
+      <c r="AM68" s="12" t="e"/>
+      <c r="AN68" s="12" t="e"/>
+      <c r="AO68" s="12" t="e"/>
+      <c r="AP68" s="12" t="e"/>
+    </row>
+    <row r="69" ht="11" customHeight="true">
+      <c r="B69" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="U66" s="1" t="e"/>
-      <c r="V66" s="1" t="e"/>
-      <c r="Y66" s="101" t="e"/>
-      <c r="Z66" s="101" t="e"/>
-      <c r="AA66" s="101" t="e"/>
-      <c r="AB66" s="101" t="e"/>
-      <c r="AC66" s="101" t="e"/>
-      <c r="AD66" s="101" t="e"/>
-      <c r="AE66" s="101" t="e"/>
-      <c r="AF66" s="101" t="e"/>
-      <c r="AG66" s="101" t="e"/>
-      <c r="AH66" s="101" t="e"/>
-      <c r="AI66" s="101" t="e"/>
-      <c r="AJ66" s="101" t="e"/>
-      <c r="AK66" s="101" t="e"/>
-      <c r="AL66" s="101" t="e"/>
-      <c r="AM66" s="101" t="e"/>
-      <c r="AN66" s="101" t="e"/>
-      <c r="AO66" s="101" t="e"/>
-      <c r="AP66" s="101" t="e"/>
-    </row>
-    <row r="67" ht="8" customHeight="true" s="1" customFormat="true">
-      <c r="B67" s="118" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" s="118" t="e"/>
-      <c r="D67" s="118" t="e"/>
-      <c r="E67" s="118" t="e"/>
-      <c r="F67" s="118" t="e"/>
-      <c r="G67" s="118" t="e"/>
-      <c r="H67" s="118" t="e"/>
-      <c r="I67" s="118" t="e"/>
-      <c r="J67" s="118" t="e"/>
-      <c r="K67" s="118" t="e"/>
-      <c r="L67" s="118" t="e"/>
-      <c r="M67" s="118" t="e"/>
-      <c r="N67" s="118" t="e"/>
-      <c r="O67" s="118" t="e"/>
-      <c r="P67" s="118" t="e"/>
-      <c r="Q67" s="118" t="e"/>
-      <c r="R67" s="108" t="e"/>
-      <c r="Y67" s="107" t="s">
+      <c r="C69" s="1" t="e"/>
+      <c r="D69" s="1" t="e"/>
+      <c r="E69" s="5" t="e"/>
+      <c r="F69" s="5" t="e"/>
+      <c r="G69" s="5" t="e"/>
+      <c r="H69" s="8" t="e"/>
+      <c r="I69" s="8" t="e"/>
+      <c r="K69" s="101" t="e"/>
+      <c r="L69" s="101" t="e"/>
+      <c r="M69" s="101" t="e"/>
+      <c r="N69" s="101" t="e"/>
+      <c r="O69" s="101" t="e"/>
+      <c r="P69" s="101" t="e"/>
+      <c r="Q69" s="101" t="e"/>
+      <c r="R69" s="108" t="e"/>
+      <c r="T69" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="Z67" s="107" t="e"/>
-      <c r="AA67" s="107" t="e"/>
-      <c r="AB67" s="107" t="e"/>
-      <c r="AC67" s="107" t="e"/>
-      <c r="AD67" s="107" t="e"/>
-      <c r="AE67" s="107" t="e"/>
-      <c r="AF67" s="107" t="e"/>
-      <c r="AG67" s="107" t="e"/>
-      <c r="AH67" s="107" t="e"/>
-      <c r="AI67" s="107" t="e"/>
-      <c r="AJ67" s="107" t="e"/>
-      <c r="AK67" s="107" t="e"/>
-      <c r="AL67" s="107" t="e"/>
-      <c r="AM67" s="107" t="e"/>
-      <c r="AN67" s="107" t="e"/>
-      <c r="AO67" s="107" t="e"/>
-      <c r="AP67" s="107" t="e"/>
-    </row>
-    <row r="68" ht="11" customHeight="true" s="1" customFormat="true">
-      <c r="B68" s="1" t="s">
+      <c r="U69" s="1" t="e"/>
+      <c r="V69" s="1" t="e"/>
+      <c r="Y69" s="8" t="e"/>
+      <c r="Z69" s="8" t="e"/>
+      <c r="AB69" s="8" t="e"/>
+      <c r="AC69" s="8" t="e"/>
+      <c r="AD69" s="8" t="e"/>
+      <c r="AE69" s="8" t="e"/>
+      <c r="AH69" s="8" t="e"/>
+      <c r="AI69" s="8" t="e"/>
+      <c r="AJ69" s="8" t="e"/>
+      <c r="AK69" s="8" t="e"/>
+      <c r="AL69" s="8" t="e"/>
+      <c r="AM69" s="8" t="e"/>
+      <c r="AN69" s="8" t="e"/>
+      <c r="AO69" s="8" t="e"/>
+      <c r="AP69" s="8" t="e"/>
+    </row>
+    <row r="70" ht="10" customHeight="true" s="1" customFormat="true">
+      <c r="E70" s="107" t="s">
+        <v>138</v>
+      </c>
+      <c r="H70" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="I70" s="12" t="e"/>
+      <c r="K70" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="L70" s="12" t="e"/>
+      <c r="M70" s="12" t="e"/>
+      <c r="N70" s="12" t="e"/>
+      <c r="O70" s="12" t="e"/>
+      <c r="P70" s="12" t="e"/>
+      <c r="Q70" s="12" t="e"/>
+      <c r="R70" s="108" t="e"/>
+      <c r="T70" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="C68" s="1" t="e"/>
-      <c r="D68" s="1" t="e"/>
-      <c r="E68" s="101" t="e"/>
-      <c r="F68" s="101" t="e"/>
-      <c r="G68" s="101" t="e"/>
-      <c r="H68" s="8" t="e"/>
-      <c r="I68" s="8" t="e"/>
-      <c r="K68" s="101" t="e"/>
-      <c r="L68" s="101" t="e"/>
-      <c r="M68" s="101" t="e"/>
-      <c r="N68" s="101" t="e"/>
-      <c r="O68" s="101" t="e"/>
-      <c r="P68" s="101" t="e"/>
-      <c r="Q68" s="101" t="e"/>
-      <c r="R68" s="108" t="e"/>
-      <c r="Y68" s="101" t="e"/>
-      <c r="Z68" s="101" t="e"/>
-      <c r="AA68" s="101" t="e"/>
-      <c r="AB68" s="101" t="e"/>
-      <c r="AC68" s="101" t="e"/>
-      <c r="AD68" s="101" t="e"/>
-      <c r="AE68" s="101" t="e"/>
-      <c r="AF68" s="101" t="e"/>
-      <c r="AG68" s="101" t="e"/>
-      <c r="AH68" s="101" t="e"/>
-      <c r="AI68" s="101" t="e"/>
-      <c r="AJ68" s="101" t="e"/>
-      <c r="AK68" s="101" t="e"/>
-      <c r="AL68" s="101" t="e"/>
-      <c r="AM68" s="101" t="e"/>
-      <c r="AN68" s="101" t="e"/>
-      <c r="AO68" s="101" t="e"/>
-      <c r="AP68" s="101" t="e"/>
-    </row>
-    <row r="69" ht="8" customHeight="true" s="1" customFormat="true">
-      <c r="E69" s="107" t="s">
+      <c r="U70" s="37" t="e"/>
+      <c r="V70" s="37" t="e"/>
+      <c r="Y70" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z70" s="12" t="e"/>
+      <c r="AB70" s="107" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC70" s="107" t="e"/>
+      <c r="AD70" s="107" t="e"/>
+      <c r="AE70" s="107" t="e"/>
+      <c r="AH70" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI70" s="12" t="e"/>
+      <c r="AJ70" s="12" t="e"/>
+      <c r="AK70" s="12" t="e"/>
+      <c r="AL70" s="12" t="e"/>
+      <c r="AM70" s="12" t="e"/>
+      <c r="AN70" s="12" t="e"/>
+      <c r="AO70" s="12" t="e"/>
+      <c r="AP70" s="12" t="e"/>
+    </row>
+    <row r="71" ht="3" customHeight="true" s="1" customFormat="true">
+      <c r="R71" s="108" t="e"/>
+    </row>
+    <row r="72" ht="11" customHeight="true" s="1" customFormat="true">
+      <c r="B72" s="86" t="e"/>
+      <c r="C72" s="86" t="e"/>
+      <c r="D72" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="H69" s="95" t="s">
+      <c r="F72" s="86" t="e"/>
+      <c r="G72" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="I69" s="12" t="e"/>
-      <c r="K69" s="95" t="s">
+      <c r="H72" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="L69" s="12" t="e"/>
-      <c r="M69" s="12" t="e"/>
-      <c r="N69" s="12" t="e"/>
-      <c r="O69" s="12" t="e"/>
-      <c r="P69" s="12" t="e"/>
-      <c r="Q69" s="12" t="e"/>
-      <c r="R69" s="108" t="e"/>
-      <c r="Y69" s="107" t="e"/>
-      <c r="Z69" s="107" t="e"/>
-      <c r="AA69" s="107" t="e"/>
-      <c r="AB69" s="107" t="e"/>
-      <c r="AC69" s="107" t="e"/>
-      <c r="AD69" s="107" t="e"/>
-      <c r="AE69" s="107" t="e"/>
-      <c r="AF69" s="107" t="e"/>
-      <c r="AG69" s="107" t="e"/>
-      <c r="AH69" s="107" t="e"/>
-      <c r="AI69" s="107" t="e"/>
-      <c r="AJ69" s="107" t="e"/>
-      <c r="AK69" s="107" t="e"/>
-      <c r="AL69" s="107" t="e"/>
-      <c r="AM69" s="107" t="e"/>
-      <c r="AN69" s="107" t="e"/>
-      <c r="AO69" s="107" t="e"/>
-      <c r="AP69" s="107" t="e"/>
-    </row>
-    <row r="70" ht="11" customHeight="true">
-      <c r="B70" s="111" t="s">
+      <c r="I72" s="8" t="e"/>
+      <c r="J72" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C70" s="111" t="e"/>
-      <c r="D70" s="111" t="e"/>
-      <c r="H70" s="8" t="e"/>
-      <c r="I70" s="8" t="e"/>
-      <c r="K70" s="101" t="e"/>
-      <c r="L70" s="101" t="e"/>
-      <c r="M70" s="101" t="e"/>
-      <c r="N70" s="101" t="e"/>
-      <c r="O70" s="101" t="e"/>
-      <c r="P70" s="101" t="e"/>
-      <c r="Q70" s="101" t="e"/>
-      <c r="R70" s="108" t="e"/>
-      <c r="T70" s="1" t="s">
+      <c r="R72" s="108" t="e"/>
+      <c r="W72" s="103" t="s">
+        <v>146</v>
+      </c>
+      <c r="X72" s="103" t="e"/>
+      <c r="AA72" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="U70" s="1" t="e"/>
-      <c r="V70" s="1" t="e"/>
-      <c r="Y70" s="8" t="e"/>
-      <c r="Z70" s="8" t="e"/>
-      <c r="AB70" s="8" t="e"/>
-      <c r="AC70" s="8" t="e"/>
-      <c r="AD70" s="8" t="e"/>
-      <c r="AE70" s="8" t="e"/>
-      <c r="AH70" s="8" t="e"/>
-      <c r="AI70" s="8" t="e"/>
-      <c r="AJ70" s="8" t="e"/>
-      <c r="AK70" s="8" t="e"/>
-      <c r="AL70" s="8" t="e"/>
-      <c r="AM70" s="8" t="e"/>
-      <c r="AN70" s="8" t="e"/>
-      <c r="AO70" s="8" t="e"/>
-      <c r="AP70" s="8" t="e"/>
-    </row>
-    <row r="71" ht="8" customHeight="true" s="1" customFormat="true">
-      <c r="E71" s="119" t="e"/>
-      <c r="F71" s="119" t="e"/>
-      <c r="G71" s="119" t="e"/>
-      <c r="H71" s="95" t="s">
-        <v>147</v>
-      </c>
-      <c r="I71" s="12" t="e"/>
-      <c r="K71" s="95" t="s">
-        <v>148</v>
-      </c>
-      <c r="L71" s="12" t="e"/>
-      <c r="M71" s="12" t="e"/>
-      <c r="N71" s="12" t="e"/>
-      <c r="O71" s="12" t="e"/>
-      <c r="P71" s="12" t="e"/>
-      <c r="Q71" s="12" t="e"/>
-      <c r="R71" s="108" t="e"/>
-      <c r="Y71" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z71" s="12" t="e"/>
-      <c r="AB71" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC71" s="107" t="e"/>
-      <c r="AD71" s="107" t="e"/>
-      <c r="AE71" s="107" t="e"/>
-      <c r="AH71" s="95" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI71" s="12" t="e"/>
-      <c r="AJ71" s="12" t="e"/>
-      <c r="AK71" s="12" t="e"/>
-      <c r="AL71" s="12" t="e"/>
-      <c r="AM71" s="12" t="e"/>
-      <c r="AN71" s="12" t="e"/>
-      <c r="AO71" s="12" t="e"/>
-      <c r="AP71" s="12" t="e"/>
-    </row>
-    <row r="72" ht="11" customHeight="true">
-      <c r="B72" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C72" s="1" t="e"/>
-      <c r="D72" s="1" t="e"/>
-      <c r="E72" s="5" t="e"/>
-      <c r="F72" s="5" t="e"/>
-      <c r="G72" s="5" t="e"/>
-      <c r="H72" s="8" t="e"/>
-      <c r="I72" s="8" t="e"/>
-      <c r="K72" s="101" t="e"/>
-      <c r="L72" s="101" t="e"/>
-      <c r="M72" s="101" t="e"/>
-      <c r="N72" s="101" t="e"/>
-      <c r="O72" s="101" t="e"/>
-      <c r="P72" s="101" t="e"/>
-      <c r="Q72" s="101" t="e"/>
-      <c r="R72" s="108" t="e"/>
-      <c r="T72" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="U72" s="1" t="e"/>
-      <c r="V72" s="1" t="e"/>
-      <c r="Y72" s="8" t="e"/>
-      <c r="Z72" s="8" t="e"/>
-      <c r="AB72" s="8" t="e"/>
-      <c r="AC72" s="8" t="e"/>
-      <c r="AD72" s="8" t="e"/>
-      <c r="AE72" s="8" t="e"/>
-      <c r="AH72" s="8" t="e"/>
-      <c r="AI72" s="8" t="e"/>
-      <c r="AJ72" s="8" t="e"/>
-      <c r="AK72" s="8" t="e"/>
-      <c r="AL72" s="8" t="e"/>
-      <c r="AM72" s="8" t="e"/>
-      <c r="AN72" s="8" t="e"/>
-      <c r="AO72" s="8" t="e"/>
-      <c r="AP72" s="8" t="e"/>
-    </row>
-    <row r="73" ht="10" customHeight="true" s="1" customFormat="true">
-      <c r="E73" s="107" t="s">
-        <v>146</v>
-      </c>
-      <c r="H73" s="95" t="s">
-        <v>147</v>
-      </c>
-      <c r="I73" s="12" t="e"/>
-      <c r="K73" s="95" t="s">
-        <v>148</v>
-      </c>
-      <c r="L73" s="12" t="e"/>
-      <c r="M73" s="12" t="e"/>
-      <c r="N73" s="12" t="e"/>
-      <c r="O73" s="12" t="e"/>
-      <c r="P73" s="12" t="e"/>
-      <c r="Q73" s="12" t="e"/>
-      <c r="R73" s="108" t="e"/>
-      <c r="T73" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="U73" s="37" t="e"/>
-      <c r="V73" s="37" t="e"/>
-      <c r="Y73" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z73" s="12" t="e"/>
-      <c r="AB73" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="AC73" s="107" t="e"/>
-      <c r="AD73" s="107" t="e"/>
-      <c r="AE73" s="107" t="e"/>
-      <c r="AH73" s="95" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI73" s="12" t="e"/>
-      <c r="AJ73" s="12" t="e"/>
-      <c r="AK73" s="12" t="e"/>
-      <c r="AL73" s="12" t="e"/>
-      <c r="AM73" s="12" t="e"/>
-      <c r="AN73" s="12" t="e"/>
-      <c r="AO73" s="12" t="e"/>
-      <c r="AP73" s="12" t="e"/>
-    </row>
-    <row r="74" ht="3" customHeight="true" s="1" customFormat="true">
-      <c r="R74" s="108" t="e"/>
-    </row>
-    <row r="75" ht="11" customHeight="true" s="1" customFormat="true">
-      <c r="B75" s="86" t="e"/>
-      <c r="C75" s="86" t="e"/>
-      <c r="D75" s="86" t="s">
-        <v>154</v>
-      </c>
-      <c r="F75" s="86" t="e"/>
-      <c r="G75" s="86" t="s">
-        <v>155</v>
-      </c>
-      <c r="H75" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="I75" s="8" t="e"/>
-      <c r="J75" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="R75" s="108" t="e"/>
-      <c r="W75" s="103" t="s">
-        <v>154</v>
-      </c>
-      <c r="X75" s="103" t="e"/>
-      <c r="AA75" s="1" t="s">
-        <v>158</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="373">
+  <mergeCells count="339">
     <mergeCell ref="V1:AN1"/>
     <mergeCell ref="B3:AF4"/>
     <mergeCell ref="AN5:AN6"/>
@@ -5272,7 +5033,6 @@
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="O33:P33"/>
     <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="U33:W33"/>
     <mergeCell ref="X33:Y33"/>
     <mergeCell ref="Z33:AB33"/>
     <mergeCell ref="AC33:AH33"/>
@@ -5283,7 +5043,6 @@
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="O34:P34"/>
     <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="U34:W34"/>
     <mergeCell ref="X34:Y34"/>
     <mergeCell ref="Z34:AB34"/>
     <mergeCell ref="AC34:AH34"/>
@@ -5305,6 +5064,7 @@
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="O36:P36"/>
     <mergeCell ref="Q36:T36"/>
+    <mergeCell ref="U36:W36"/>
     <mergeCell ref="X36:Y36"/>
     <mergeCell ref="Z36:AB36"/>
     <mergeCell ref="AC36:AH36"/>
@@ -5386,41 +5146,42 @@
     <mergeCell ref="Z43:AB43"/>
     <mergeCell ref="AC43:AH43"/>
     <mergeCell ref="AM43:AO43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="O44:P44"/>
     <mergeCell ref="Q44:T44"/>
     <mergeCell ref="U44:W44"/>
     <mergeCell ref="X44:Y44"/>
     <mergeCell ref="Z44:AB44"/>
     <mergeCell ref="AC44:AH44"/>
     <mergeCell ref="AM44:AO44"/>
-    <mergeCell ref="Q45:T45"/>
-    <mergeCell ref="U45:W45"/>
-    <mergeCell ref="X45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="AC45:AH45"/>
-    <mergeCell ref="AM45:AO45"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:M47"/>
-    <mergeCell ref="N47:N48"/>
-    <mergeCell ref="O47:T47"/>
-    <mergeCell ref="U47:W48"/>
-    <mergeCell ref="X47:Y48"/>
-    <mergeCell ref="Z47:AB48"/>
-    <mergeCell ref="AC47:AH48"/>
-    <mergeCell ref="AI47:AL47"/>
-    <mergeCell ref="AM47:AO48"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:M46"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="O46:T46"/>
+    <mergeCell ref="U46:W47"/>
+    <mergeCell ref="X46:Y47"/>
+    <mergeCell ref="Z46:AB47"/>
+    <mergeCell ref="AC46:AH47"/>
+    <mergeCell ref="AI46:AL46"/>
+    <mergeCell ref="AM46:AO47"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:T47"/>
+    <mergeCell ref="AJ47:AL47"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="G48:H48"/>
     <mergeCell ref="I48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="O48:P48"/>
     <mergeCell ref="Q48:T48"/>
+    <mergeCell ref="U48:W48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="AC48:AH48"/>
     <mergeCell ref="AJ48:AL48"/>
+    <mergeCell ref="AM48:AO48"/>
     <mergeCell ref="C49:F49"/>
     <mergeCell ref="G49:H49"/>
     <mergeCell ref="I49:K49"/>
@@ -5431,80 +5192,46 @@
     <mergeCell ref="X49:Y49"/>
     <mergeCell ref="Z49:AB49"/>
     <mergeCell ref="AC49:AH49"/>
-    <mergeCell ref="AJ49:AL49"/>
     <mergeCell ref="AM49:AO49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="O50:P50"/>
     <mergeCell ref="Q50:T50"/>
     <mergeCell ref="U50:W50"/>
     <mergeCell ref="X50:Y50"/>
     <mergeCell ref="Z50:AB50"/>
     <mergeCell ref="AC50:AH50"/>
     <mergeCell ref="AM50:AO50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="O51:P51"/>
     <mergeCell ref="Q51:T51"/>
     <mergeCell ref="U51:W51"/>
     <mergeCell ref="X51:Y51"/>
     <mergeCell ref="Z51:AB51"/>
     <mergeCell ref="AC51:AH51"/>
     <mergeCell ref="AM51:AO51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:T52"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AC52:AH52"/>
-    <mergeCell ref="AM52:AO52"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="U53:W53"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="AC53:AH53"/>
-    <mergeCell ref="AM53:AO53"/>
-    <mergeCell ref="Q54:T54"/>
-    <mergeCell ref="U54:W54"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="Z54:AB54"/>
-    <mergeCell ref="AC54:AH54"/>
-    <mergeCell ref="AM54:AO54"/>
-    <mergeCell ref="AH57:AP58"/>
-    <mergeCell ref="F58:I60"/>
-    <mergeCell ref="S58:AE58"/>
-    <mergeCell ref="AB59:AE59"/>
-    <mergeCell ref="AH59:AP60"/>
-    <mergeCell ref="S60:AE60"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="AB61:AE61"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="Y65:AP66"/>
-    <mergeCell ref="B66:R66"/>
-    <mergeCell ref="B67:Q67"/>
-    <mergeCell ref="Y67:AP67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="Y68:AP68"/>
-    <mergeCell ref="Y69:AP69"/>
+    <mergeCell ref="AH54:AP55"/>
+    <mergeCell ref="F55:I57"/>
+    <mergeCell ref="S55:AE55"/>
+    <mergeCell ref="AB56:AE56"/>
+    <mergeCell ref="AH56:AP57"/>
+    <mergeCell ref="S57:AE57"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="AB58:AE58"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="Y62:AP63"/>
+    <mergeCell ref="B63:R63"/>
+    <mergeCell ref="B64:Q64"/>
+    <mergeCell ref="Y64:AP64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="Y65:AP65"/>
+    <mergeCell ref="Y66:AP66"/>
+    <mergeCell ref="AB67:AE67"/>
+    <mergeCell ref="E68:G69"/>
+    <mergeCell ref="AB68:AE68"/>
+    <mergeCell ref="AB69:AE69"/>
     <mergeCell ref="AB70:AE70"/>
-    <mergeCell ref="E71:G72"/>
-    <mergeCell ref="AB71:AE71"/>
-    <mergeCell ref="AB72:AE72"/>
-    <mergeCell ref="AB73:AE73"/>
   </mergeCells>
   <pageMargins left="0.19685039370078740157480315" top="0.393700787401574803149606299" right="0.19685039370078740157480315" bottom="0.393700787401574803149606299" header="0.393700787401574803149606299" footer="0.393700787401574803149606299"/>
   <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="landscape" paperSize="9"/>
   <headerFooter alignWithMargins="true" scaleWithDoc="true"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="45" max="16383" man="true"/>
+    <brk id="44" max="16383" man="true"/>
   </rowBreaks>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
